--- a/Experiments/Part1-Uniform-MajorMinor/Part2-PeerPop.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Part2-PeerPop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="4440" windowWidth="34020" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1741,20 +1741,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2109404648"/>
-        <c:axId val="-2095479816"/>
+        <c:axId val="2056042488"/>
+        <c:axId val="2100395848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109404648"/>
+        <c:axId val="2056042488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095479816"/>
+        <c:crossAx val="2100395848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1762,18 +1781,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095479816"/>
+        <c:axId val="2100395848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109404648"/>
+        <c:crossAx val="2056042488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3433,20 +3471,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103235544"/>
-        <c:axId val="-2103825768"/>
+        <c:axId val="2101423928"/>
+        <c:axId val="2101206712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103235544"/>
+        <c:axId val="2101423928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103825768"/>
+        <c:crossAx val="2101206712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3454,18 +3511,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103825768"/>
+        <c:axId val="2101206712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Payoff</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103235544"/>
+        <c:crossAx val="2101423928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3876,7 +3957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="J1" activeCellId="2" sqref="R1:S1048576 C1:D1048576 J1:K1048576"/>
     </sheetView>
   </sheetViews>

--- a/Experiments/Part1-Uniform-MajorMinor/Part2-PeerPop.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Part2-PeerPop.xlsx
@@ -27,28 +27,28 @@
     <t>Taste0(Random)</t>
   </si>
   <si>
-    <t>Taste1(peerPop-uniform)</t>
+    <t>Taste 1 (PeerPop_uniform)</t>
   </si>
   <si>
-    <t>Taste0(peerPopUniform)</t>
+    <t>Taste 0 (PeerPop_Uniform)</t>
   </si>
   <si>
-    <t>Taste1(peerPop-MajorMinor)</t>
+    <t>Taste 1(PeerPop_MajorMinor)</t>
   </si>
   <si>
-    <t>Taste0(peerPop-MajorMinor)</t>
+    <t>Taste 0 (PeerPop-MajorMinor)</t>
   </si>
   <si>
-    <t>Taste 1(Peer-follow-sim-Uniform)</t>
+    <t>Taste 1 (PeerLikeSim_uniform)</t>
   </si>
   <si>
-    <t>Taste 0 (Peer-follow-sim-Uniform)</t>
+    <t>Taste 0 (PeerLikeSim_Unifrom)</t>
   </si>
   <si>
-    <t>Taste 1 (Peer-follow-sim-Major)</t>
+    <t>Taste 1(PeerLikeSim_MajorMinor)</t>
   </si>
   <si>
-    <t>Taste 0(Peer-follow-sim-Minor)</t>
+    <t>Taste 0 (PeerLikeSim_MajorMinor)</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste1(peerPop-uniform)</c:v>
+                  <c:v>Taste 1 (PeerPop_uniform)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -683,241 +683,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>1.58</c:v>
+                  <c:v>2.119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.58</c:v>
+                  <c:v>4.699999999999984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.246666667</c:v>
+                  <c:v>7.179999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.663333333</c:v>
+                  <c:v>9.87999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.16333333</c:v>
+                  <c:v>11.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.89833333</c:v>
+                  <c:v>12.18666666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.31166667</c:v>
+                  <c:v>13.92666666666665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.7</c:v>
+                  <c:v>15.86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.77166667</c:v>
+                  <c:v>17.93333333333329</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.17333333</c:v>
+                  <c:v>21.21333333333331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.62</c:v>
+                  <c:v>22.95333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.55833333</c:v>
+                  <c:v>24.87999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.25166667</c:v>
+                  <c:v>26.93333333333328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.43833333</c:v>
+                  <c:v>29.47333333333329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.98333333</c:v>
+                  <c:v>32.53999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.25166667</c:v>
+                  <c:v>35.23999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.35833333</c:v>
+                  <c:v>37.22666666666665</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.78833333</c:v>
+                  <c:v>39.95333333333328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>57.25666667</c:v>
+                  <c:v>42.5533333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.02</c:v>
+                  <c:v>45.57999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64.42666667</c:v>
+                  <c:v>47.35999999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>67.72333333</c:v>
+                  <c:v>50.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>71.27833333</c:v>
+                  <c:v>52.4533333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.09333332999999</c:v>
+                  <c:v>56.27999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>78.41</c:v>
+                  <c:v>60.25999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>80.73666667</c:v>
+                  <c:v>64.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>84.405</c:v>
+                  <c:v>67.03999999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>87.86</c:v>
+                  <c:v>70.06666666666663</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>90.89833333</c:v>
+                  <c:v>72.20666666666663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>93.52</c:v>
+                  <c:v>74.91999999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>96.09833333</c:v>
+                  <c:v>76.81333333333329</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>99.38166667</c:v>
+                  <c:v>78.63999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>101.855</c:v>
+                  <c:v>80.40666666666662</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>104.34</c:v>
+                  <c:v>83.42666666666663</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>106.625</c:v>
+                  <c:v>86.24666666666658</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>108.8733333</c:v>
+                  <c:v>87.97333333333322</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>111.17</c:v>
+                  <c:v>90.4199999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>113.585</c:v>
+                  <c:v>91.85333333333317</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>115.8716667</c:v>
+                  <c:v>94.55333333333321</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>118.0516667</c:v>
+                  <c:v>96.75333333333319</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>120.205</c:v>
+                  <c:v>98.6466666666664</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>121.905</c:v>
+                  <c:v>102.0599999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>123.7283333</c:v>
+                  <c:v>104.1066666666665</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>125.3983333</c:v>
+                  <c:v>106.8466666666664</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>126.825</c:v>
+                  <c:v>109.1599999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>127.9833333</c:v>
+                  <c:v>112.4733333333331</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>129.1866667</c:v>
+                  <c:v>114.1066666666664</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>130.9866667</c:v>
+                  <c:v>116.1599999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>132.725</c:v>
+                  <c:v>117.6133333333331</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>134.43</c:v>
+                  <c:v>119.993333333333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>136.0183333</c:v>
+                  <c:v>122.413333333333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>137.3866667</c:v>
+                  <c:v>124.893333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>139.4566667</c:v>
+                  <c:v>127.0666666666663</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>141.2566667</c:v>
+                  <c:v>129.8799999999996</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>143.0083333</c:v>
+                  <c:v>132.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>144.8133333</c:v>
+                  <c:v>134.313333333333</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>146.825</c:v>
+                  <c:v>137.3133333333329</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>149.0866667</c:v>
+                  <c:v>139.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>151.39</c:v>
+                  <c:v>143.493333333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>154.1416667</c:v>
+                  <c:v>147.3866666666662</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>156.6116667</c:v>
+                  <c:v>149.7266666666663</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>159.2333333</c:v>
+                  <c:v>151.5666666666663</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>161.42</c:v>
+                  <c:v>153.9599999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>163.785</c:v>
+                  <c:v>156.5266666666664</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>166.175</c:v>
+                  <c:v>158.4399999999997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>168.5483333</c:v>
+                  <c:v>161.3466666666663</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>171.1016667</c:v>
+                  <c:v>164.0799999999995</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>173.3833333</c:v>
+                  <c:v>167.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>175.61</c:v>
+                  <c:v>170.153333333333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>177.6483333</c:v>
+                  <c:v>172.6333333333332</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>180.22</c:v>
+                  <c:v>176.3199999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>182.5966667</c:v>
+                  <c:v>178.913333333333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>184.775</c:v>
+                  <c:v>183.2399999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>187.19</c:v>
+                  <c:v>185.5399999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>189.5766667</c:v>
+                  <c:v>188.1199999999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>191.8283333</c:v>
+                  <c:v>189.9266666666665</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>193.855</c:v>
+                  <c:v>191.7266666666663</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>195.8066667</c:v>
+                  <c:v>192.9666666666663</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>197.5916667</c:v>
+                  <c:v>196.5666666666665</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -936,7 +936,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste0(peerPopUniform)</c:v>
+                  <c:v>Taste 0 (PeerPop_Uniform)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -951,241 +951,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>3.206666667</c:v>
+                  <c:v>2.573333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.813333333</c:v>
+                  <c:v>4.826666666666654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.373333333</c:v>
+                  <c:v>7.206666666666658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.68333333</c:v>
+                  <c:v>9.286666666666658</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.60333333</c:v>
+                  <c:v>12.79333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.70833333</c:v>
+                  <c:v>16.57333333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.60166667</c:v>
+                  <c:v>19.63999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.93333333</c:v>
+                  <c:v>22.62666666666663</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.72833333</c:v>
+                  <c:v>25.56666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.02</c:v>
+                  <c:v>27.09333333333331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.15333333</c:v>
+                  <c:v>30.23999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.415</c:v>
+                  <c:v>33.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.82166667</c:v>
+                  <c:v>35.88666666666661</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.84166667</c:v>
+                  <c:v>38.31999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.39</c:v>
+                  <c:v>40.09999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.315</c:v>
+                  <c:v>42.20666666666663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.90833333</c:v>
+                  <c:v>45.13333333333331</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.985</c:v>
+                  <c:v>47.37999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.93</c:v>
+                  <c:v>49.57999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.71333333</c:v>
+                  <c:v>51.42666666666664</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.95333333</c:v>
+                  <c:v>54.7133333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37.72333333</c:v>
+                  <c:v>56.88666666666662</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.02833333</c:v>
+                  <c:v>59.31999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40.25333333</c:v>
+                  <c:v>60.39999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42.52333333</c:v>
+                  <c:v>61.37999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44.89</c:v>
+                  <c:v>61.57999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>46.28833333</c:v>
+                  <c:v>64.11999999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.76</c:v>
+                  <c:v>66.09333333333329</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49.20166667</c:v>
+                  <c:v>68.8933333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51.07333333</c:v>
+                  <c:v>71.15999999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.015</c:v>
+                  <c:v>74.19333333333327</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55.17166667</c:v>
+                  <c:v>77.29333333333328</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>57.285</c:v>
+                  <c:v>80.37333333333329</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>59.87333333</c:v>
+                  <c:v>82.22666666666661</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>62.48166667</c:v>
+                  <c:v>84.39333333333329</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65.37333332999999</c:v>
+                  <c:v>87.69999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67.87666667</c:v>
+                  <c:v>90.13999999999995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70.18833333000001</c:v>
+                  <c:v>93.69999999999991</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>72.92833333</c:v>
+                  <c:v>95.85999999999981</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>76.12166667</c:v>
+                  <c:v>98.55999999999986</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>79.22166667</c:v>
+                  <c:v>101.6466666666665</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>82.34166667</c:v>
+                  <c:v>102.9199999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86.02500000000001</c:v>
+                  <c:v>106.1199999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>89.655</c:v>
+                  <c:v>108.393333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>93.40833333</c:v>
+                  <c:v>111.1399999999996</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>97.15666667</c:v>
+                  <c:v>112.6333333333329</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100.5466667</c:v>
+                  <c:v>115.973333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>103.84</c:v>
+                  <c:v>118.873333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>107.0683333</c:v>
+                  <c:v>122.5199999999996</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>110.3233333</c:v>
+                  <c:v>125.1999999999996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>114.0283333</c:v>
+                  <c:v>127.6999999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>117.3933333</c:v>
+                  <c:v>130.3466666666663</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>120.41</c:v>
+                  <c:v>133.1333333333328</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>123.79</c:v>
+                  <c:v>135.2266666666663</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>126.9916667</c:v>
+                  <c:v>137.7799999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>130.04</c:v>
+                  <c:v>140.7599999999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>133.2616667</c:v>
+                  <c:v>142.7666666666663</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>135.8266667</c:v>
+                  <c:v>145.253333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>138.6633333</c:v>
+                  <c:v>146.7933333333329</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>141.4783333</c:v>
+                  <c:v>147.9466666666663</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>144.1216667</c:v>
+                  <c:v>150.5866666666663</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>146.72</c:v>
+                  <c:v>153.8866666666664</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>149.72</c:v>
+                  <c:v>156.7799999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>152.5816667</c:v>
+                  <c:v>159.193333333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>155.4183333</c:v>
+                  <c:v>162.3266666666664</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>158.645</c:v>
+                  <c:v>164.753333333333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>161.545</c:v>
+                  <c:v>167.0066666666664</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>164.4433333</c:v>
+                  <c:v>169.0999999999996</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>167.2566667</c:v>
+                  <c:v>171.1466666666663</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>170.2916667</c:v>
+                  <c:v>173.853333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>173.2333333</c:v>
+                  <c:v>175.3799999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>175.9566667</c:v>
+                  <c:v>178.0266666666663</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>178.785</c:v>
+                  <c:v>178.9666666666663</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>181.97</c:v>
+                  <c:v>181.913333333333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>184.8033333</c:v>
+                  <c:v>184.6199999999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>188.0983333</c:v>
+                  <c:v>188.0999999999997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>191.2583333</c:v>
+                  <c:v>191.5933333333332</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>194.1533333</c:v>
+                  <c:v>195.6466666666664</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>197.4883333</c:v>
+                  <c:v>197.7999999999996</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1204,7 +1204,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1(Peer-follow-sim-Uniform)</c:v>
+                  <c:v>Taste 1 (PeerLikeSim_uniform)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1219,241 +1219,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>2.47037037</c:v>
+                  <c:v>2.386666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.65</c:v>
+                  <c:v>7.45333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.69074074</c:v>
+                  <c:v>14.17999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.52777778</c:v>
+                  <c:v>21.3733333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.84814815</c:v>
+                  <c:v>28.75333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.07962963</c:v>
+                  <c:v>36.17333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.23148148</c:v>
+                  <c:v>43.6533333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.88333333</c:v>
+                  <c:v>51.1533333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.37592593</c:v>
+                  <c:v>58.6533333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.76481481</c:v>
+                  <c:v>66.15333333333329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.26481481</c:v>
+                  <c:v>73.65333333333329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.18148148</c:v>
+                  <c:v>81.15333333333329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.25</c:v>
+                  <c:v>88.65333333333329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.04444444</c:v>
+                  <c:v>96.15333333333329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.337037</c:v>
+                  <c:v>103.6533333333329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107.2981481</c:v>
+                  <c:v>111.1533333333329</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>114.0462963</c:v>
+                  <c:v>118.6466666666663</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>121.6925926</c:v>
+                  <c:v>126.0866666666663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>128.8944444</c:v>
+                  <c:v>133.4266666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>135.862963</c:v>
+                  <c:v>140.6733333333331</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>142.6240741</c:v>
+                  <c:v>147.8266666666663</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>149.6240741</c:v>
+                  <c:v>154.8466666666663</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>156.7185185</c:v>
+                  <c:v>161.6266666666663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>163.2759259</c:v>
+                  <c:v>168.3866666666663</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>169.7814815</c:v>
+                  <c:v>175.2333333333329</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>176.4333333</c:v>
+                  <c:v>181.8466666666664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>182.8648148</c:v>
+                  <c:v>188.5466666666663</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>189.3814815</c:v>
+                  <c:v>195.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195.7722222</c:v>
+                  <c:v>202.053333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>201.5240741</c:v>
+                  <c:v>208.5866666666664</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>207.8111111</c:v>
+                  <c:v>215.2066666666664</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>213.6518519</c:v>
+                  <c:v>221.3599999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>220.2222222</c:v>
+                  <c:v>227.8266666666664</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>225.9148148</c:v>
+                  <c:v>234.3066666666663</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>231.65</c:v>
+                  <c:v>240.3066666666664</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>237.3888889</c:v>
+                  <c:v>246.2599999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>242.8740741</c:v>
+                  <c:v>251.7799999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>248.0592593</c:v>
+                  <c:v>256.8666666666662</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>253.0962963</c:v>
+                  <c:v>262.3999999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.0592593</c:v>
+                  <c:v>267.3599999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>262.3648148</c:v>
+                  <c:v>271.1599999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>265.9240741</c:v>
+                  <c:v>274.313333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>269.1240741</c:v>
+                  <c:v>277.593333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>271.8240741</c:v>
+                  <c:v>280.1599999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>273.6851852</c:v>
+                  <c:v>280.5599999999997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>274.2888889</c:v>
+                  <c:v>280.6599999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>274.8166667</c:v>
+                  <c:v>280.2133333333332</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>274.4481481</c:v>
+                  <c:v>278.6466666666664</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>274.0166667</c:v>
+                  <c:v>277.0466666666666</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>272.4092593</c:v>
+                  <c:v>274.9266666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>270.887037</c:v>
+                  <c:v>272.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>269.0777778</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>267.1407407</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>265.1259259</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>262.7092593</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>260.2148148</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>257.9259259</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>255.5555556</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>252.9814815</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>250.4888889</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>247.9351852</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>245.212963</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>242.712963</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>240.1759259</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>237.6944444</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>235.4259259</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>232.8425926</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>230.4259259</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>227.75</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>225.2407407</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.6203704</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>220.1481481</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>217.8703704</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>215.2962963</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>213.0185185</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.5092593</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>208.0</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>205.4537037</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.8981481</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1472,7 +1472,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 0 (Peer-follow-sim-Uniform)</c:v>
+                  <c:v>Taste 0 (PeerLikeSim_Unifrom)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1487,241 +1487,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>2.662962963</c:v>
+                  <c:v>2.606666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.312962963</c:v>
+                  <c:v>7.75333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.53148148</c:v>
+                  <c:v>14.53999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.42777778</c:v>
+                  <c:v>21.84666666666662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.63333333</c:v>
+                  <c:v>29.24666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.18703704</c:v>
+                  <c:v>36.74666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.99074074</c:v>
+                  <c:v>44.17999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.30185185</c:v>
+                  <c:v>51.67999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.78703704</c:v>
+                  <c:v>59.17999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.39814815</c:v>
+                  <c:v>66.67999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.89814815</c:v>
+                  <c:v>74.17999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.97407407</c:v>
+                  <c:v>81.67999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87.80185185000001</c:v>
+                  <c:v>89.17999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.8</c:v>
+                  <c:v>96.67999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103.3</c:v>
+                  <c:v>104.1799999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>110.8944444</c:v>
+                  <c:v>111.6799999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>118.7166667</c:v>
+                  <c:v>119.1799999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>125.3592593</c:v>
+                  <c:v>126.6599999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>132.3203704</c:v>
+                  <c:v>134.0533333333331</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139.2481481</c:v>
+                  <c:v>141.3466666666664</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>146.4351852</c:v>
+                  <c:v>148.453333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153.2574074</c:v>
+                  <c:v>155.2999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>159.8814815</c:v>
+                  <c:v>162.1266666666664</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>166.9611111</c:v>
+                  <c:v>168.893333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174.1074074</c:v>
+                  <c:v>175.7399999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>180.4925926</c:v>
+                  <c:v>182.6599999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>187.0685185</c:v>
+                  <c:v>189.6266666666663</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>193.7148148</c:v>
+                  <c:v>196.2399999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>200.4648148</c:v>
+                  <c:v>202.6866666666663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>207.2018519</c:v>
+                  <c:v>209.4266666666663</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>213.5740741</c:v>
+                  <c:v>215.793333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>220.1481481</c:v>
+                  <c:v>221.9999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>226.0814815</c:v>
+                  <c:v>228.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>232.4407407</c:v>
+                  <c:v>234.8999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>238.1648148</c:v>
+                  <c:v>240.6666666666664</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>243.3666667</c:v>
+                  <c:v>246.7199999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>248.562963</c:v>
+                  <c:v>252.4399999999995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>253.1555556</c:v>
+                  <c:v>258.1933333333332</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>258.0074074</c:v>
+                  <c:v>263.753333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>262.362963</c:v>
+                  <c:v>268.7066666666663</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>266.2574074</c:v>
+                  <c:v>272.5866666666662</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>269.0981481</c:v>
+                  <c:v>276.4466666666662</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>271.6981481</c:v>
+                  <c:v>279.5333333333331</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>273.9388889</c:v>
+                  <c:v>281.4266666666663</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>275.1148148</c:v>
+                  <c:v>282.0333333333332</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>275.6296296</c:v>
+                  <c:v>281.9799999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>274.9240741</c:v>
+                  <c:v>281.1133333333332</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>273.9666667</c:v>
+                  <c:v>279.1999999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>272.7314815</c:v>
+                  <c:v>277.1533333333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>271.5018519</c:v>
+                  <c:v>274.9066666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>269.6240741</c:v>
+                  <c:v>272.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>267.737037</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>265.8148148</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>263.7259259</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>261.6240741</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>259.4296296</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>256.8222222</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>254.2962963</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>251.9074074</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>249.4444444</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>247.0648148</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>244.787037</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>242.287037</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>239.8240741</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>237.3055556</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>234.5740741</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>232.1574074</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>229.5740741</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>227.25</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>224.7592593</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.3796296</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>219.8518519</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>217.1296296</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>214.7037037</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.9814815</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.4907407</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.0</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.5462963</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.1018519</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1741,11 +1741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2056042488"/>
-        <c:axId val="2100395848"/>
+        <c:axId val="2121548296"/>
+        <c:axId val="2140895768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2056042488"/>
+        <c:axId val="2121548296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100395848"/>
+        <c:crossAx val="2140895768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1781,7 +1781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100395848"/>
+        <c:axId val="2140895768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056042488"/>
+        <c:crossAx val="2121548296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2398,7 +2398,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste1(peerPop-MajorMinor)</c:v>
+                  <c:v>Taste 1(PeerPop_MajorMinor)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2413,241 +2413,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>5.033333333</c:v>
+                  <c:v>3.509523809523809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.68333333</c:v>
+                  <c:v>8.29523809523807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.06666667</c:v>
+                  <c:v>14.76190476190473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.26071429</c:v>
+                  <c:v>20.69047619047615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.84642857</c:v>
+                  <c:v>25.76666666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.74404762</c:v>
+                  <c:v>29.21428571428568</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.00952381</c:v>
+                  <c:v>32.2380952380952</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.4702381</c:v>
+                  <c:v>36.99047619047616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.975</c:v>
+                  <c:v>40.49523809523807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.64047619</c:v>
+                  <c:v>42.85238095238094</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.54404762</c:v>
+                  <c:v>46.17142857142854</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71.97261905</c:v>
+                  <c:v>49.76190476190474</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.60833332999999</c:v>
+                  <c:v>54.59047619047614</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84.65000000000001</c:v>
+                  <c:v>57.78095238095234</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90.19166667</c:v>
+                  <c:v>60.65714285714284</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95.20476189999999</c:v>
+                  <c:v>65.89047619047616</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>99.69761905</c:v>
+                  <c:v>70.61904761904756</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>104.102381</c:v>
+                  <c:v>71.89523809523804</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>108.627381</c:v>
+                  <c:v>75.0142857142857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>112.3511905</c:v>
+                  <c:v>78.64761904761898</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116.3988095</c:v>
+                  <c:v>80.647619047619</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>120.4619048</c:v>
+                  <c:v>84.41904761904757</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>122.8559524</c:v>
+                  <c:v>88.96190476190473</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>126.3416667</c:v>
+                  <c:v>91.28571428571423</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>129.6428571</c:v>
+                  <c:v>94.83809523809501</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>132.3464286</c:v>
+                  <c:v>97.74761904761888</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>136.3892857</c:v>
+                  <c:v>100.6142857142854</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>139.4928571</c:v>
+                  <c:v>103.2523809523805</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>141.952381</c:v>
+                  <c:v>107.1333333333329</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>144.022619</c:v>
+                  <c:v>111.0142857142853</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>145.8440476</c:v>
+                  <c:v>114.6809523809518</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>150.0166667</c:v>
+                  <c:v>116.9857142857139</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>154.0297619</c:v>
+                  <c:v>119.819047619047</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>158.1571429</c:v>
+                  <c:v>123.2190476190472</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>161.8285714</c:v>
+                  <c:v>125.9999999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>165.722619</c:v>
+                  <c:v>128.4142857142853</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>168.6845238</c:v>
+                  <c:v>130.8571428571424</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>172.6595238</c:v>
+                  <c:v>133.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>175.7166667</c:v>
+                  <c:v>136.1666666666661</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>179.0404762</c:v>
+                  <c:v>139.6047619047614</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>182.2892857</c:v>
+                  <c:v>141.4619047619043</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>184.2833333</c:v>
+                  <c:v>144.6095238095234</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>186.3202381</c:v>
+                  <c:v>147.7190476190472</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>187.9869048</c:v>
+                  <c:v>151.1999999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>189.6559524</c:v>
+                  <c:v>152.9047619047614</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>190.9607143</c:v>
+                  <c:v>155.7857142857138</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>191.8380952</c:v>
+                  <c:v>159.77619047619</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>193.2190476</c:v>
+                  <c:v>161.4952380952376</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>195.2761905</c:v>
+                  <c:v>163.5904761904758</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>196.3154762</c:v>
+                  <c:v>164.8476190476186</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>197.3035714</c:v>
+                  <c:v>166.6333333333328</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>200.2821429</c:v>
+                  <c:v>168.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>202.2678571</c:v>
+                  <c:v>170.0857142857138</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>203.9011905</c:v>
+                  <c:v>170.6761904761901</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>205.6107143</c:v>
+                  <c:v>172.8142857142852</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>207.9583333</c:v>
+                  <c:v>174.2666666666662</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>211.0333333</c:v>
+                  <c:v>176.2809523809518</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>213.1428571</c:v>
+                  <c:v>177.723809523809</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>215.5214286</c:v>
+                  <c:v>178.4952380952377</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>218.327381</c:v>
+                  <c:v>179.1333333333328</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>220.2928571</c:v>
+                  <c:v>181.0952380952376</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>221.8904762</c:v>
+                  <c:v>183.2095238095233</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>223.8535714</c:v>
+                  <c:v>186.0380952380947</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>226.0785714</c:v>
+                  <c:v>186.4904761904758</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>227.6261905</c:v>
+                  <c:v>187.7857142857136</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>228.6964286</c:v>
+                  <c:v>189.7476190476182</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>228.7488095</c:v>
+                  <c:v>190.9047619047615</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>227.6845238</c:v>
+                  <c:v>192.4238095238092</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>225.8309524</c:v>
+                  <c:v>193.1904761904758</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>223.8238095</c:v>
+                  <c:v>192.5952380952378</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>221.5714286</c:v>
+                  <c:v>193.5999999999995</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>219.3666667</c:v>
+                  <c:v>193.9142857142854</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>217.0214286</c:v>
+                  <c:v>194.6095238095232</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>214.6154762</c:v>
+                  <c:v>196.7095238095232</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>212.1083333</c:v>
+                  <c:v>198.7904761904758</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.6369048</c:v>
+                  <c:v>201.0952380952374</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.1845238</c:v>
+                  <c:v>201.7952380952376</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.8333333</c:v>
+                  <c:v>202.2857142857138</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.422619</c:v>
+                  <c:v>201.6666666666664</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -2666,7 +2666,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste0(peerPop-MajorMinor)</c:v>
+                  <c:v>Taste 0 (PeerPop-MajorMinor)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2681,241 +2681,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>-0.255555556</c:v>
+                  <c:v>1.377777777777777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.227777778</c:v>
+                  <c:v>1.088888888888883</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.9</c:v>
+                  <c:v>-0.388888888888895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.608333333</c:v>
+                  <c:v>-1.344444444444443</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.008333333</c:v>
+                  <c:v>-1.655555555555536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.191666667</c:v>
+                  <c:v>-0.388888888888876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.922222222</c:v>
+                  <c:v>1.466666666666662</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.597222222</c:v>
+                  <c:v>1.722222222222211</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.097222222</c:v>
+                  <c:v>2.933333333333319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.26111111</c:v>
+                  <c:v>5.38888888888887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-12.03611111</c:v>
+                  <c:v>6.966666666666644</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-13.75833333</c:v>
+                  <c:v>8.299999999999965</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-15.075</c:v>
+                  <c:v>8.366666666666645</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-16.49444444</c:v>
+                  <c:v>9.922222222222213</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-17.16944444</c:v>
+                  <c:v>12.11111111111109</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-17.47777778</c:v>
+                  <c:v>11.6222222222222</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-16.98333333</c:v>
+                  <c:v>11.76666666666664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-15.66111111</c:v>
+                  <c:v>15.4555555555555</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-15.00833333</c:v>
+                  <c:v>17.07777777777773</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-13.88611111</c:v>
+                  <c:v>18.31111111111105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-12.85277778</c:v>
+                  <c:v>21.2555555555555</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-12.0</c:v>
+                  <c:v>22.25555555555551</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-10.21944444</c:v>
+                  <c:v>22.66666666666661</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.819444444</c:v>
+                  <c:v>25.28888888888885</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.211111111</c:v>
+                  <c:v>26.66666666666662</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-5.386111111</c:v>
+                  <c:v>28.75555555555552</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.863888889</c:v>
+                  <c:v>30.85555555555551</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.994444444</c:v>
+                  <c:v>33.1444444444444</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.4</c:v>
+                  <c:v>34.28888888888884</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.091666667</c:v>
+                  <c:v>35.33333333333327</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.508333333</c:v>
+                  <c:v>36.53333333333328</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.338888889</c:v>
+                  <c:v>39.1222222222222</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.163888889</c:v>
+                  <c:v>41.13333333333328</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.833333333</c:v>
+                  <c:v>42.79999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.5</c:v>
+                  <c:v>45.0444444444444</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.591666667</c:v>
+                  <c:v>47.55555555555551</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.95833333</c:v>
+                  <c:v>50.11111111111106</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.16111111</c:v>
+                  <c:v>52.42222222222218</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14.39444444</c:v>
+                  <c:v>54.63333333333328</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16.13888889</c:v>
+                  <c:v>56.09999999999994</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17.38055556</c:v>
+                  <c:v>59.21111111111107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.78333333</c:v>
+                  <c:v>61.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.26388889</c:v>
+                  <c:v>62.97777777777776</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26.19722222</c:v>
+                  <c:v>64.49999999999995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>29.925</c:v>
+                  <c:v>67.92222222222218</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>33.14722222</c:v>
+                  <c:v>69.96666666666662</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.15555556</c:v>
+                  <c:v>70.98888888888885</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.38888889</c:v>
+                  <c:v>74.39999999999996</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43.92222222</c:v>
+                  <c:v>77.23333333333328</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>47.96388889</c:v>
+                  <c:v>81.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52.83611111</c:v>
+                  <c:v>84.2444444444444</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>55.40833333</c:v>
+                  <c:v>87.68888888888881</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>58.36388889</c:v>
+                  <c:v>90.8999999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>61.34166667</c:v>
+                  <c:v>95.2666666666666</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64.44166667</c:v>
+                  <c:v>97.96666666666644</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>67.33055555999999</c:v>
+                  <c:v>101.6888888888887</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>69.9</c:v>
+                  <c:v>104.6111111111107</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>72.95555555999999</c:v>
+                  <c:v>108.1999999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>75.30555556</c:v>
+                  <c:v>112.3999999999995</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>77.425</c:v>
+                  <c:v>116.9444444444441</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>80.42777778</c:v>
+                  <c:v>120.0777777777774</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>84.05555556</c:v>
+                  <c:v>123.0333333333329</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>86.71944444</c:v>
+                  <c:v>125.2222222222219</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>89.90555556</c:v>
+                  <c:v>129.9777777777772</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>93.59444444</c:v>
+                  <c:v>133.844444444444</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>97.64166667</c:v>
+                  <c:v>137.0777777777773</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>103.0638889</c:v>
+                  <c:v>141.0555555555551</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>109.2472222</c:v>
+                  <c:v>144.544444444444</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>115.5944444</c:v>
+                  <c:v>148.9999999999995</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>122.2444444</c:v>
+                  <c:v>154.5999999999996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>128.8222222</c:v>
+                  <c:v>158.7888888888885</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>136.7111111</c:v>
+                  <c:v>163.5777777777773</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>144.85</c:v>
+                  <c:v>167.9666666666663</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>152.375</c:v>
+                  <c:v>171.1555555555551</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>159.7916667</c:v>
+                  <c:v>174.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>167.4583333</c:v>
+                  <c:v>177.6555555555551</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>175.2916667</c:v>
+                  <c:v>182.3777777777772</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>183.8333333</c:v>
+                  <c:v>187.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>191.9583333</c:v>
+                  <c:v>193.1333333333331</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -2934,7 +2934,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1 (Peer-follow-sim-Major)</c:v>
+                  <c:v>Taste 1(PeerLikeSim_MajorMinor)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2949,241 +2949,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>2.342857142857137</c:v>
+                  <c:v>2.44285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.069047619047613</c:v>
+                  <c:v>8.190476190476186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.43095238095233</c:v>
+                  <c:v>15.46666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.69047619047613</c:v>
+                  <c:v>22.91428571428568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.17499999999995</c:v>
+                  <c:v>30.41428571428568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.32142857142854</c:v>
+                  <c:v>37.90952380952378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.60595238095233</c:v>
+                  <c:v>45.40952380952378</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.14523809523804</c:v>
+                  <c:v>52.90952380952378</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.6095238095238</c:v>
+                  <c:v>60.40952380952378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.48452380952375</c:v>
+                  <c:v>67.9095238095238</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.75238095238092</c:v>
+                  <c:v>75.40952380952377</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80.2523809523809</c:v>
+                  <c:v>82.90952380952377</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87.89047619047616</c:v>
+                  <c:v>90.4095238095238</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.18690476190473</c:v>
+                  <c:v>97.9095238095238</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102.8952380952376</c:v>
+                  <c:v>105.4095238095233</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>110.5904761904757</c:v>
+                  <c:v>112.9095238095233</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>117.7261904761899</c:v>
+                  <c:v>120.4095238095233</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>125.0226190476183</c:v>
+                  <c:v>127.9095238095233</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>132.7238095238092</c:v>
+                  <c:v>135.4095238095233</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139.7249999999996</c:v>
+                  <c:v>142.8952380952376</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>146.8119047619042</c:v>
+                  <c:v>150.2761904761899</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153.9845238095234</c:v>
+                  <c:v>157.6285714285708</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>161.0726190476186</c:v>
+                  <c:v>164.9190476190471</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>168.0773809523804</c:v>
+                  <c:v>172.0047619047615</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>175.3059523809519</c:v>
+                  <c:v>178.8999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>182.2690476190472</c:v>
+                  <c:v>185.7904761904757</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>189.3916666666663</c:v>
+                  <c:v>192.723809523809</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>195.9690476190471</c:v>
+                  <c:v>199.4666666666662</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>202.7488095238089</c:v>
+                  <c:v>206.0809523809518</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>209.7309523809518</c:v>
+                  <c:v>212.8095238095236</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>215.9035714285709</c:v>
+                  <c:v>219.6380952380947</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>222.271428571428</c:v>
+                  <c:v>226.1095238095232</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>228.85119047619</c:v>
+                  <c:v>232.5428571428566</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>235.030952380952</c:v>
+                  <c:v>239.0952380952376</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>240.7678571428566</c:v>
+                  <c:v>245.4619047619042</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>246.0273809523805</c:v>
+                  <c:v>251.5952380952375</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>251.6214285714282</c:v>
+                  <c:v>257.6904761904757</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>257.1119047619044</c:v>
+                  <c:v>263.2857142857137</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>261.8011904761899</c:v>
+                  <c:v>268.2047619047615</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>266.498809523809</c:v>
+                  <c:v>273.4238095238092</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>270.3726190476185</c:v>
+                  <c:v>278.4904761904756</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>273.344047619047</c:v>
+                  <c:v>282.3095238095234</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>275.8595238095231</c:v>
+                  <c:v>285.6761904761901</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>277.4130952380946</c:v>
+                  <c:v>286.3952380952377</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>277.844047619047</c:v>
+                  <c:v>285.5999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>277.4047619047614</c:v>
+                  <c:v>283.9285714285712</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>276.9023809523805</c:v>
+                  <c:v>281.795238095238</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>275.5726190476187</c:v>
+                  <c:v>279.9571428571428</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>274.191666666666</c:v>
+                  <c:v>277.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>272.3154761904757</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>270.4845238095232</c:v>
+                  <c:v>272.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>268.3523809523805</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>266.0666666666662</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>263.8154761904758</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>261.3130952380948</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>258.958333333333</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>256.4999999999994</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>254.094047619047</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>251.47619047619</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>249.1428571428566</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>246.60119047619</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>244.0714285714281</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>241.5952380952377</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>239.1309523809519</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>236.6845238095233</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>234.1190476190472</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>231.6785714285709</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>229.0714285714282</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>226.494047619047</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>223.9107142857138</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>221.3928571428567</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>218.9285714285711</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>216.553571428571</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>214.053571428571</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.5476190476185</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.0773809523807</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>206.7738095238091</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.3928571428565</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.2976190476186</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -3202,7 +3202,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 0(Peer-follow-sim-Minor)</c:v>
+                  <c:v>Taste 0 (PeerLikeSim_MajorMinor)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3217,241 +3217,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>2.488888888888885</c:v>
+                  <c:v>2.622222222222217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.849999999999996</c:v>
+                  <c:v>6.766666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.62777777777775</c:v>
+                  <c:v>12.66666666666662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.42222222222217</c:v>
+                  <c:v>19.53333333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.99166666666661</c:v>
+                  <c:v>26.78888888888886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.96111111111105</c:v>
+                  <c:v>34.14444444444439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.70833333333328</c:v>
+                  <c:v>41.4333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.96111111111105</c:v>
+                  <c:v>48.77777777777773</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.48888888888884</c:v>
+                  <c:v>56.2444444444444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.11388888888884</c:v>
+                  <c:v>63.7444444444444</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.11111111111107</c:v>
+                  <c:v>71.2444444444444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.5111111111111</c:v>
+                  <c:v>78.7444444444444</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>82.51111111111103</c:v>
+                  <c:v>86.2444444444444</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.1194444444444</c:v>
+                  <c:v>93.7444444444444</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96.63333333333323</c:v>
+                  <c:v>101.1888888888886</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>103.133333333333</c:v>
+                  <c:v>108.4555555555551</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110.6611111111108</c:v>
+                  <c:v>115.5666666666661</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117.4805555555551</c:v>
+                  <c:v>122.4333333333327</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>123.4111111111107</c:v>
+                  <c:v>129.0222222222218</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130.619444444444</c:v>
+                  <c:v>135.7111111111106</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>137.205555555555</c:v>
+                  <c:v>142.244444444444</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>142.980555555555</c:v>
+                  <c:v>148.9888888888883</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.3083333333328</c:v>
+                  <c:v>155.344444444444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>155.2861111111108</c:v>
+                  <c:v>161.944444444444</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>160.830555555555</c:v>
+                  <c:v>168.2999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>166.6611111111107</c:v>
+                  <c:v>174.6222222222217</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>172.0972222222218</c:v>
+                  <c:v>180.7666666666661</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>178.3277777777775</c:v>
+                  <c:v>187.0111111111106</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>184.3638888888886</c:v>
+                  <c:v>193.544444444444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>190.1166666666662</c:v>
+                  <c:v>199.7777777777775</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>196.9361111111106</c:v>
+                  <c:v>205.8555555555551</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>203.0333333333328</c:v>
+                  <c:v>211.5666666666663</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>208.3249999999995</c:v>
+                  <c:v>217.3555555555553</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>214.1499999999996</c:v>
+                  <c:v>223.3555555555551</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>220.3194444444441</c:v>
+                  <c:v>229.2777777777773</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>226.9472222222216</c:v>
+                  <c:v>233.9555555555551</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>232.983333333333</c:v>
+                  <c:v>239.2444444444439</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>237.4611111111108</c:v>
+                  <c:v>244.644444444444</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>242.430555555555</c:v>
+                  <c:v>248.9888888888884</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>247.1472222222218</c:v>
+                  <c:v>253.7222222222218</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>251.7194444444438</c:v>
+                  <c:v>258.3999999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>256.1638888888885</c:v>
+                  <c:v>262.1111111111107</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>259.3499999999995</c:v>
+                  <c:v>266.3888888888885</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>263.047222222222</c:v>
+                  <c:v>269.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>265.8972222222218</c:v>
+                  <c:v>271.1888888888885</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>267.6111111111106</c:v>
+                  <c:v>273.4666666666663</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>269.0722222222217</c:v>
+                  <c:v>274.322222222222</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>270.2749999999996</c:v>
+                  <c:v>274.6333333333329</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>270.6972222222217</c:v>
+                  <c:v>274.4111111111108</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>270.341666666666</c:v>
+                  <c:v>272.9999999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>269.4249999999995</c:v>
+                  <c:v>271.4333333333331</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>268.6333333333329</c:v>
+                  <c:v>269.4444444444444</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>267.3111111111108</c:v>
+                  <c:v>267.2111111111111</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>265.6527777777773</c:v>
+                  <c:v>264.8</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>263.780555555555</c:v>
+                  <c:v>262.3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>261.3861111111109</c:v>
+                  <c:v>259.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>258.8999999999995</c:v>
+                  <c:v>257.3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>256.5805555555551</c:v>
+                  <c:v>254.8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>254.4111111111107</c:v>
+                  <c:v>252.3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>251.7999999999995</c:v>
+                  <c:v>249.8555555555555</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>249.5416666666662</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>247.1111111111106</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>244.6111111111108</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>242.0277777777772</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>239.4027777777772</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>237.055555555555</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>234.4166666666663</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>232.1666666666663</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>229.8472222222217</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>227.5416666666663</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>225.0833333333328</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>222.4999999999996</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>219.7083333333329</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217.2083333333329</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>214.7222222222219</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>212.1527777777774</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>209.1944444444442</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>206.4166666666661</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.9722222222218</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -3471,11 +3471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101423928"/>
-        <c:axId val="2101206712"/>
+        <c:axId val="-2105582440"/>
+        <c:axId val="-2105576824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101423928"/>
+        <c:axId val="-2105582440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3503,7 +3503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101206712"/>
+        <c:crossAx val="-2105576824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3511,7 +3511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101206712"/>
+        <c:axId val="-2105576824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,7 +3546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101423928"/>
+        <c:crossAx val="-2105582440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3572,16 +3572,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3602,16 +3602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3957,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J1" activeCellId="2" sqref="R1:S1048576 C1:D1048576 J1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O3" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3970,22 +3970,22 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
       <c r="R1" t="s">
@@ -4002,29 +4002,29 @@
       <c r="D2" s="1">
         <v>2.4066666670000001</v>
       </c>
-      <c r="F2" s="1">
-        <v>1.58</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.2066666669999999</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5.0333333329999999</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-0.25555555600000002</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2.4703703699999999</v>
-      </c>
-      <c r="O2" s="1">
-        <v>2.662962963</v>
+      <c r="F2">
+        <v>2.1199999999999988</v>
+      </c>
+      <c r="G2">
+        <v>2.5733333333333319</v>
+      </c>
+      <c r="J2">
+        <v>3.5095238095238086</v>
+      </c>
+      <c r="K2">
+        <v>1.3777777777777775</v>
+      </c>
+      <c r="N2">
+        <v>2.3866666666666627</v>
+      </c>
+      <c r="O2">
+        <v>2.6066666666666629</v>
       </c>
       <c r="R2">
-        <v>2.3428571428571372</v>
+        <v>2.4428571428571391</v>
       </c>
       <c r="S2">
-        <v>2.4888888888888854</v>
+        <v>2.6222222222222169</v>
       </c>
     </row>
     <row r="3" spans="3:19">
@@ -4034,29 +4034,29 @@
       <c r="D3" s="1">
         <v>4.8083333330000002</v>
       </c>
-      <c r="F3" s="1">
-        <v>3.58</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5.8133333330000001</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10.68333333</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-0.22777777799999999</v>
-      </c>
-      <c r="N3" s="1">
-        <v>6.65</v>
-      </c>
-      <c r="O3" s="1">
-        <v>7.3129629630000004</v>
+      <c r="F3">
+        <v>4.6999999999999842</v>
+      </c>
+      <c r="G3">
+        <v>4.8266666666666538</v>
+      </c>
+      <c r="J3">
+        <v>8.2952380952380693</v>
+      </c>
+      <c r="K3">
+        <v>1.0888888888888828</v>
+      </c>
+      <c r="N3">
+        <v>7.4533333333333305</v>
+      </c>
+      <c r="O3">
+        <v>7.7533333333333303</v>
       </c>
       <c r="R3">
-        <v>7.0690476190476135</v>
+        <v>8.1904761904761862</v>
       </c>
       <c r="S3">
-        <v>5.8499999999999961</v>
+        <v>6.7666666666666631</v>
       </c>
     </row>
     <row r="4" spans="3:19">
@@ -4066,29 +4066,29 @@
       <c r="D4" s="1">
         <v>7.5583333330000002</v>
       </c>
-      <c r="F4" s="1">
-        <v>6.2466666670000004</v>
-      </c>
-      <c r="G4" s="1">
-        <v>8.3733333329999997</v>
-      </c>
-      <c r="J4" s="1">
-        <v>16.06666667</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-0.9</v>
-      </c>
-      <c r="N4" s="1">
-        <v>12.690740740000001</v>
-      </c>
-      <c r="O4" s="1">
-        <v>13.53148148</v>
+      <c r="F4">
+        <v>7.1799999999999908</v>
+      </c>
+      <c r="G4">
+        <v>7.2066666666666581</v>
+      </c>
+      <c r="J4">
+        <v>14.761904761904725</v>
+      </c>
+      <c r="K4">
+        <v>-0.38888888888889472</v>
+      </c>
+      <c r="N4">
+        <v>14.17999999999997</v>
+      </c>
+      <c r="O4">
+        <v>14.539999999999969</v>
       </c>
       <c r="R4">
-        <v>13.430952380952329</v>
+        <v>15.466666666666637</v>
       </c>
       <c r="S4">
-        <v>10.627777777777752</v>
+        <v>12.666666666666623</v>
       </c>
     </row>
     <row r="5" spans="3:19">
@@ -4098,29 +4098,29 @@
       <c r="D5" s="1">
         <v>10.053333329999999</v>
       </c>
-      <c r="F5" s="1">
-        <v>8.6633333330000006</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10.68333333</v>
-      </c>
-      <c r="J5" s="1">
-        <v>21.260714289999999</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-1.608333333</v>
-      </c>
-      <c r="N5" s="1">
-        <v>19.527777780000001</v>
-      </c>
-      <c r="O5" s="1">
-        <v>20.42777778</v>
+      <c r="F5">
+        <v>9.879999999999983</v>
+      </c>
+      <c r="G5">
+        <v>9.2866666666666582</v>
+      </c>
+      <c r="J5">
+        <v>20.690476190476147</v>
+      </c>
+      <c r="K5">
+        <v>-1.3444444444444428</v>
+      </c>
+      <c r="N5">
+        <v>21.373333333333299</v>
+      </c>
+      <c r="O5">
+        <v>21.846666666666621</v>
       </c>
       <c r="R5">
-        <v>20.690476190476129</v>
+        <v>22.914285714285679</v>
       </c>
       <c r="S5">
-        <v>16.422222222222167</v>
+        <v>19.533333333333292</v>
       </c>
     </row>
     <row r="6" spans="3:19">
@@ -4130,29 +4130,29 @@
       <c r="D6" s="1">
         <v>12.446666670000001</v>
       </c>
-      <c r="F6" s="1">
-        <v>11.16333333</v>
-      </c>
-      <c r="G6" s="1">
-        <v>13.60333333</v>
-      </c>
-      <c r="J6" s="1">
-        <v>26.84642857</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-2.0083333329999999</v>
-      </c>
-      <c r="N6" s="1">
-        <v>26.84814815</v>
-      </c>
-      <c r="O6" s="1">
-        <v>27.633333329999999</v>
+      <c r="F6">
+        <v>11.219999999999992</v>
+      </c>
+      <c r="G6">
+        <v>12.793333333333313</v>
+      </c>
+      <c r="J6">
+        <v>25.766666666666612</v>
+      </c>
+      <c r="K6">
+        <v>-1.6555555555555366</v>
+      </c>
+      <c r="N6">
+        <v>28.753333333333295</v>
+      </c>
+      <c r="O6">
+        <v>29.246666666666631</v>
       </c>
       <c r="R6">
-        <v>28.174999999999947</v>
+        <v>30.414285714285683</v>
       </c>
       <c r="S6">
-        <v>22.99166666666661</v>
+        <v>26.788888888888856</v>
       </c>
     </row>
     <row r="7" spans="3:19">
@@ -4162,29 +4162,29 @@
       <c r="D7" s="1">
         <v>14.84333333</v>
       </c>
-      <c r="F7" s="1">
-        <v>13.89833333</v>
-      </c>
-      <c r="G7" s="1">
-        <v>15.70833333</v>
-      </c>
-      <c r="J7" s="1">
-        <v>32.744047620000003</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-3.1916666669999998</v>
-      </c>
-      <c r="N7" s="1">
-        <v>34.079629629999999</v>
-      </c>
-      <c r="O7" s="1">
-        <v>35.18703704</v>
+      <c r="F7">
+        <v>12.186666666666653</v>
+      </c>
+      <c r="G7">
+        <v>16.573333333333316</v>
+      </c>
+      <c r="J7">
+        <v>29.214285714285687</v>
+      </c>
+      <c r="K7">
+        <v>-0.38888888888887624</v>
+      </c>
+      <c r="N7">
+        <v>36.173333333333289</v>
+      </c>
+      <c r="O7">
+        <v>36.746666666666627</v>
       </c>
       <c r="R7">
-        <v>35.321428571428541</v>
+        <v>37.909523809523783</v>
       </c>
       <c r="S7">
-        <v>30.961111111111052</v>
+        <v>34.144444444444389</v>
       </c>
     </row>
     <row r="8" spans="3:19">
@@ -4194,29 +4194,29 @@
       <c r="D8" s="1">
         <v>17.456666670000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>17.311666670000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>17.60166667</v>
-      </c>
-      <c r="J8" s="1">
-        <v>39.009523809999997</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-4.9222222220000003</v>
-      </c>
-      <c r="N8" s="1">
-        <v>41.231481479999999</v>
-      </c>
-      <c r="O8" s="1">
-        <v>42.99074074</v>
+      <c r="F8">
+        <v>13.926666666666652</v>
+      </c>
+      <c r="G8">
+        <v>19.639999999999976</v>
+      </c>
+      <c r="J8">
+        <v>32.238095238095212</v>
+      </c>
+      <c r="K8">
+        <v>1.4666666666666623</v>
+      </c>
+      <c r="N8">
+        <v>43.653333333333293</v>
+      </c>
+      <c r="O8">
+        <v>44.179999999999964</v>
       </c>
       <c r="R8">
-        <v>42.605952380952331</v>
+        <v>45.409523809523783</v>
       </c>
       <c r="S8">
-        <v>38.708333333333286</v>
+        <v>41.433333333333294</v>
       </c>
     </row>
     <row r="9" spans="3:19">
@@ -4226,29 +4226,29 @@
       <c r="D9" s="1">
         <v>20.241666670000001</v>
       </c>
-      <c r="F9" s="1">
-        <v>20.7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>18.93333333</v>
-      </c>
-      <c r="J9" s="1">
-        <v>45.470238100000003</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-6.5972222220000001</v>
-      </c>
-      <c r="N9" s="1">
-        <v>48.883333329999999</v>
-      </c>
-      <c r="O9" s="1">
-        <v>50.301851849999998</v>
+      <c r="F9">
+        <v>15.859999999999991</v>
+      </c>
+      <c r="G9">
+        <v>22.62666666666663</v>
+      </c>
+      <c r="J9">
+        <v>36.990476190476159</v>
+      </c>
+      <c r="K9">
+        <v>1.7222222222222112</v>
+      </c>
+      <c r="N9">
+        <v>51.153333333333293</v>
+      </c>
+      <c r="O9">
+        <v>51.679999999999971</v>
       </c>
       <c r="R9">
-        <v>50.145238095238042</v>
+        <v>52.909523809523783</v>
       </c>
       <c r="S9">
-        <v>45.961111111111052</v>
+        <v>48.777777777777729</v>
       </c>
     </row>
     <row r="10" spans="3:19">
@@ -4258,29 +4258,29 @@
       <c r="D10" s="1">
         <v>22.83</v>
       </c>
-      <c r="F10" s="1">
-        <v>24.771666669999998</v>
-      </c>
-      <c r="G10" s="1">
-        <v>19.728333330000002</v>
-      </c>
-      <c r="J10" s="1">
-        <v>51.975000000000001</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-8.0972222219999992</v>
-      </c>
-      <c r="N10" s="1">
-        <v>56.375925930000001</v>
-      </c>
-      <c r="O10" s="1">
-        <v>57.787037040000001</v>
+      <c r="F10">
+        <v>17.933333333333287</v>
+      </c>
+      <c r="G10">
+        <v>25.566666666666627</v>
+      </c>
+      <c r="J10">
+        <v>40.495238095238072</v>
+      </c>
+      <c r="K10">
+        <v>2.9333333333333194</v>
+      </c>
+      <c r="N10">
+        <v>58.653333333333293</v>
+      </c>
+      <c r="O10">
+        <v>59.179999999999971</v>
       </c>
       <c r="R10">
-        <v>57.609523809523793</v>
+        <v>60.409523809523783</v>
       </c>
       <c r="S10">
-        <v>53.488888888888837</v>
+        <v>56.244444444444397</v>
       </c>
     </row>
     <row r="11" spans="3:19">
@@ -4290,29 +4290,29 @@
       <c r="D11" s="1">
         <v>25.12166667</v>
       </c>
-      <c r="F11" s="1">
-        <v>27.173333329999998</v>
-      </c>
-      <c r="G11" s="1">
-        <v>22.02</v>
-      </c>
-      <c r="J11" s="1">
-        <v>58.640476190000001</v>
-      </c>
-      <c r="K11" s="1">
-        <v>-10.26111111</v>
-      </c>
-      <c r="N11" s="1">
-        <v>63.764814809999997</v>
-      </c>
-      <c r="O11" s="1">
-        <v>65.398148149999997</v>
+      <c r="F11">
+        <v>21.213333333333313</v>
+      </c>
+      <c r="G11">
+        <v>27.093333333333305</v>
+      </c>
+      <c r="J11">
+        <v>42.85238095238094</v>
+      </c>
+      <c r="K11">
+        <v>5.3888888888888697</v>
+      </c>
+      <c r="N11">
+        <v>66.153333333333293</v>
+      </c>
+      <c r="O11">
+        <v>66.679999999999978</v>
       </c>
       <c r="R11">
-        <v>65.484523809523751</v>
+        <v>67.90952380952379</v>
       </c>
       <c r="S11">
-        <v>60.113888888888845</v>
+        <v>63.744444444444397</v>
       </c>
     </row>
     <row r="12" spans="3:19">
@@ -4322,29 +4322,29 @@
       <c r="D12" s="1">
         <v>27.508333329999999</v>
       </c>
-      <c r="F12" s="1">
-        <v>29.62</v>
-      </c>
-      <c r="G12" s="1">
-        <v>24.153333329999999</v>
-      </c>
-      <c r="J12" s="1">
-        <v>65.544047620000001</v>
-      </c>
-      <c r="K12" s="1">
-        <v>-12.03611111</v>
-      </c>
-      <c r="N12" s="1">
-        <v>71.264814810000004</v>
-      </c>
-      <c r="O12" s="1">
-        <v>72.898148149999997</v>
+      <c r="F12">
+        <v>22.953333333333312</v>
+      </c>
+      <c r="G12">
+        <v>30.239999999999959</v>
+      </c>
+      <c r="J12">
+        <v>46.171428571428535</v>
+      </c>
+      <c r="K12">
+        <v>6.9666666666666446</v>
+      </c>
+      <c r="N12">
+        <v>73.653333333333293</v>
+      </c>
+      <c r="O12">
+        <v>74.179999999999978</v>
       </c>
       <c r="R12">
-        <v>72.752380952380918</v>
+        <v>75.409523809523776</v>
       </c>
       <c r="S12">
-        <v>68.111111111111072</v>
+        <v>71.244444444444397</v>
       </c>
     </row>
     <row r="13" spans="3:19">
@@ -4354,29 +4354,29 @@
       <c r="D13" s="1">
         <v>30.28833333</v>
       </c>
-      <c r="F13" s="1">
-        <v>32.558333330000004</v>
-      </c>
-      <c r="G13" s="1">
-        <v>26.414999999999999</v>
-      </c>
-      <c r="J13" s="1">
-        <v>71.972619050000006</v>
-      </c>
-      <c r="K13" s="1">
-        <v>-13.758333329999999</v>
-      </c>
-      <c r="N13" s="1">
-        <v>79.181481480000002</v>
-      </c>
-      <c r="O13" s="1">
-        <v>79.97407407</v>
+      <c r="F13">
+        <v>24.879999999999967</v>
+      </c>
+      <c r="G13">
+        <v>33.13333333333329</v>
+      </c>
+      <c r="J13">
+        <v>49.761904761904738</v>
+      </c>
+      <c r="K13">
+        <v>8.2999999999999652</v>
+      </c>
+      <c r="N13">
+        <v>81.153333333333293</v>
+      </c>
+      <c r="O13">
+        <v>81.679999999999978</v>
       </c>
       <c r="R13">
-        <v>80.252380952380904</v>
+        <v>82.909523809523776</v>
       </c>
       <c r="S13">
-        <v>75.511111111111092</v>
+        <v>78.744444444444397</v>
       </c>
     </row>
     <row r="14" spans="3:19">
@@ -4386,29 +4386,29 @@
       <c r="D14" s="1">
         <v>32.561666670000001</v>
       </c>
-      <c r="F14" s="1">
-        <v>36.251666669999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>27.821666669999999</v>
-      </c>
-      <c r="J14" s="1">
-        <v>78.608333329999994</v>
-      </c>
-      <c r="K14" s="1">
-        <v>-15.074999999999999</v>
-      </c>
-      <c r="N14" s="1">
-        <v>86.25</v>
-      </c>
-      <c r="O14" s="1">
-        <v>87.801851850000006</v>
+      <c r="F14">
+        <v>26.93333333333328</v>
+      </c>
+      <c r="G14">
+        <v>35.886666666666613</v>
+      </c>
+      <c r="J14">
+        <v>54.590476190476146</v>
+      </c>
+      <c r="K14">
+        <v>8.3666666666666458</v>
+      </c>
+      <c r="N14">
+        <v>88.653333333333293</v>
+      </c>
+      <c r="O14">
+        <v>89.179999999999978</v>
       </c>
       <c r="R14">
-        <v>87.890476190476164</v>
+        <v>90.40952380952379</v>
       </c>
       <c r="S14">
-        <v>82.511111111111035</v>
+        <v>86.244444444444412</v>
       </c>
     </row>
     <row r="15" spans="3:19">
@@ -4418,29 +4418,29 @@
       <c r="D15" s="1">
         <v>35.085000000000001</v>
       </c>
-      <c r="F15" s="1">
-        <v>40.438333329999999</v>
-      </c>
-      <c r="G15" s="1">
-        <v>28.841666669999999</v>
-      </c>
-      <c r="J15" s="1">
-        <v>84.65</v>
-      </c>
-      <c r="K15" s="1">
-        <v>-16.494444439999999</v>
-      </c>
-      <c r="N15" s="1">
-        <v>93.044444440000007</v>
-      </c>
-      <c r="O15" s="1">
-        <v>95.8</v>
+      <c r="F15">
+        <v>29.47333333333329</v>
+      </c>
+      <c r="G15">
+        <v>38.319999999999958</v>
+      </c>
+      <c r="J15">
+        <v>57.78095238095235</v>
+      </c>
+      <c r="K15">
+        <v>9.9222222222222136</v>
+      </c>
+      <c r="N15">
+        <v>96.153333333333293</v>
+      </c>
+      <c r="O15">
+        <v>96.679999999999978</v>
       </c>
       <c r="R15">
-        <v>95.186904761904728</v>
+        <v>97.90952380952379</v>
       </c>
       <c r="S15">
-        <v>90.119444444444397</v>
+        <v>93.744444444444412</v>
       </c>
     </row>
     <row r="16" spans="3:19">
@@ -4450,29 +4450,29 @@
       <c r="D16" s="1">
         <v>37.698333329999997</v>
       </c>
-      <c r="F16" s="1">
-        <v>43.983333330000001</v>
-      </c>
-      <c r="G16" s="1">
-        <v>29.39</v>
-      </c>
-      <c r="J16" s="1">
-        <v>90.191666670000004</v>
-      </c>
-      <c r="K16" s="1">
-        <v>-17.169444439999999</v>
-      </c>
-      <c r="N16" s="1">
-        <v>100.337037</v>
-      </c>
-      <c r="O16" s="1">
-        <v>103.3</v>
+      <c r="F16">
+        <v>32.539999999999964</v>
+      </c>
+      <c r="G16">
+        <v>40.099999999999952</v>
+      </c>
+      <c r="J16">
+        <v>60.657142857142844</v>
+      </c>
+      <c r="K16">
+        <v>12.111111111111088</v>
+      </c>
+      <c r="N16">
+        <v>103.65333333333292</v>
+      </c>
+      <c r="O16">
+        <v>104.17999999999972</v>
       </c>
       <c r="R16">
-        <v>102.89523809523762</v>
+        <v>105.40952380952331</v>
       </c>
       <c r="S16">
-        <v>96.633333333333226</v>
+        <v>101.1888888888886</v>
       </c>
     </row>
     <row r="17" spans="3:19">
@@ -4482,29 +4482,29 @@
       <c r="D17" s="1">
         <v>40.268333329999997</v>
       </c>
-      <c r="F17" s="1">
-        <v>47.251666669999999</v>
-      </c>
-      <c r="G17" s="1">
-        <v>30.315000000000001</v>
-      </c>
-      <c r="J17" s="1">
-        <v>95.204761899999994</v>
-      </c>
-      <c r="K17" s="1">
-        <v>-17.47777778</v>
-      </c>
-      <c r="N17" s="1">
-        <v>107.29814810000001</v>
-      </c>
-      <c r="O17" s="1">
-        <v>110.8944444</v>
+      <c r="F17">
+        <v>35.239999999999966</v>
+      </c>
+      <c r="G17">
+        <v>42.206666666666628</v>
+      </c>
+      <c r="J17">
+        <v>65.890476190476164</v>
+      </c>
+      <c r="K17">
+        <v>11.622222222222199</v>
+      </c>
+      <c r="N17">
+        <v>111.15333333333292</v>
+      </c>
+      <c r="O17">
+        <v>111.67999999999972</v>
       </c>
       <c r="R17">
-        <v>110.5904761904757</v>
+        <v>112.90952380952331</v>
       </c>
       <c r="S17">
-        <v>103.13333333333303</v>
+        <v>108.45555555555509</v>
       </c>
     </row>
     <row r="18" spans="3:19">
@@ -4514,29 +4514,29 @@
       <c r="D18" s="1">
         <v>42.895000000000003</v>
       </c>
-      <c r="F18" s="1">
-        <v>50.358333330000001</v>
-      </c>
-      <c r="G18" s="1">
-        <v>31.908333330000001</v>
-      </c>
-      <c r="J18" s="1">
-        <v>99.69761905</v>
-      </c>
-      <c r="K18" s="1">
-        <v>-16.983333330000001</v>
-      </c>
-      <c r="N18" s="1">
-        <v>114.04629629999999</v>
-      </c>
-      <c r="O18" s="1">
-        <v>118.7166667</v>
+      <c r="F18">
+        <v>37.226666666666645</v>
+      </c>
+      <c r="G18">
+        <v>45.133333333333312</v>
+      </c>
+      <c r="J18">
+        <v>70.619047619047564</v>
+      </c>
+      <c r="K18">
+        <v>11.766666666666643</v>
+      </c>
+      <c r="N18">
+        <v>118.64666666666631</v>
+      </c>
+      <c r="O18">
+        <v>119.17999999999972</v>
       </c>
       <c r="R18">
-        <v>117.72619047618991</v>
+        <v>120.40952380952331</v>
       </c>
       <c r="S18">
-        <v>110.66111111111078</v>
+        <v>115.56666666666608</v>
       </c>
     </row>
     <row r="19" spans="3:19">
@@ -4546,29 +4546,29 @@
       <c r="D19" s="1">
         <v>45.458333330000002</v>
       </c>
-      <c r="F19" s="1">
-        <v>53.78833333</v>
-      </c>
-      <c r="G19" s="1">
-        <v>32.984999999999999</v>
-      </c>
-      <c r="J19" s="1">
-        <v>104.10238099999999</v>
-      </c>
-      <c r="K19" s="1">
-        <v>-15.66111111</v>
-      </c>
-      <c r="N19" s="1">
-        <v>121.6925926</v>
-      </c>
-      <c r="O19" s="1">
-        <v>125.35925930000001</v>
+      <c r="F19">
+        <v>39.953333333333283</v>
+      </c>
+      <c r="G19">
+        <v>47.37999999999996</v>
+      </c>
+      <c r="J19">
+        <v>71.895238095238042</v>
+      </c>
+      <c r="K19">
+        <v>15.455555555555502</v>
+      </c>
+      <c r="N19">
+        <v>126.08666666666632</v>
+      </c>
+      <c r="O19">
+        <v>126.65999999999971</v>
       </c>
       <c r="R19">
-        <v>125.02261904761831</v>
+        <v>127.90952380952331</v>
       </c>
       <c r="S19">
-        <v>117.48055555555509</v>
+        <v>122.43333333333271</v>
       </c>
     </row>
     <row r="20" spans="3:19">
@@ -4578,29 +4578,29 @@
       <c r="D20" s="1">
         <v>47.66</v>
       </c>
-      <c r="F20" s="1">
-        <v>57.256666670000001</v>
-      </c>
-      <c r="G20" s="1">
-        <v>33.93</v>
-      </c>
-      <c r="J20" s="1">
-        <v>108.627381</v>
-      </c>
-      <c r="K20" s="1">
-        <v>-15.008333329999999</v>
-      </c>
-      <c r="N20" s="1">
-        <v>128.8944444</v>
-      </c>
-      <c r="O20" s="1">
-        <v>132.3203704</v>
+      <c r="F20">
+        <v>42.553333333333292</v>
+      </c>
+      <c r="G20">
+        <v>49.57999999999997</v>
+      </c>
+      <c r="J20">
+        <v>75.014285714285691</v>
+      </c>
+      <c r="K20">
+        <v>17.077777777777733</v>
+      </c>
+      <c r="N20">
+        <v>133.42666666666634</v>
+      </c>
+      <c r="O20">
+        <v>134.05333333333311</v>
       </c>
       <c r="R20">
-        <v>132.72380952380922</v>
+        <v>135.40952380952334</v>
       </c>
       <c r="S20">
-        <v>123.4111111111107</v>
+        <v>129.02222222222181</v>
       </c>
     </row>
     <row r="21" spans="3:19">
@@ -4610,29 +4610,29 @@
       <c r="D21" s="1">
         <v>50.09</v>
       </c>
-      <c r="F21" s="1">
-        <v>61.02</v>
-      </c>
-      <c r="G21" s="1">
-        <v>34.713333329999998</v>
-      </c>
-      <c r="J21" s="1">
-        <v>112.3511905</v>
-      </c>
-      <c r="K21" s="1">
-        <v>-13.88611111</v>
-      </c>
-      <c r="N21" s="1">
-        <v>135.86296300000001</v>
-      </c>
-      <c r="O21" s="1">
-        <v>139.24814810000001</v>
+      <c r="F21">
+        <v>45.579999999999963</v>
+      </c>
+      <c r="G21">
+        <v>51.426666666666641</v>
+      </c>
+      <c r="J21">
+        <v>78.647619047618988</v>
+      </c>
+      <c r="K21">
+        <v>18.311111111111053</v>
+      </c>
+      <c r="N21">
+        <v>140.67333333333312</v>
+      </c>
+      <c r="O21">
+        <v>141.34666666666641</v>
       </c>
       <c r="R21">
-        <v>139.7249999999996</v>
+        <v>142.89523809523763</v>
       </c>
       <c r="S21">
-        <v>130.61944444444401</v>
+        <v>135.7111111111106</v>
       </c>
     </row>
     <row r="22" spans="3:19">
@@ -4642,29 +4642,29 @@
       <c r="D22" s="1">
         <v>52.613333330000003</v>
       </c>
-      <c r="F22" s="1">
-        <v>64.426666670000003</v>
-      </c>
-      <c r="G22" s="1">
-        <v>35.95333333</v>
-      </c>
-      <c r="J22" s="1">
-        <v>116.3988095</v>
-      </c>
-      <c r="K22" s="1">
-        <v>-12.85277778</v>
-      </c>
-      <c r="N22" s="1">
-        <v>142.6240741</v>
-      </c>
-      <c r="O22" s="1">
-        <v>146.43518520000001</v>
+      <c r="F22">
+        <v>47.359999999999957</v>
+      </c>
+      <c r="G22">
+        <v>54.713333333333296</v>
+      </c>
+      <c r="J22">
+        <v>80.647619047619003</v>
+      </c>
+      <c r="K22">
+        <v>21.255555555555496</v>
+      </c>
+      <c r="N22">
+        <v>147.82666666666628</v>
+      </c>
+      <c r="O22">
+        <v>148.45333333333303</v>
       </c>
       <c r="R22">
-        <v>146.81190476190423</v>
+        <v>150.27619047618992</v>
       </c>
       <c r="S22">
-        <v>137.20555555555501</v>
+        <v>142.24444444444401</v>
       </c>
     </row>
     <row r="23" spans="3:19">
@@ -4674,29 +4674,29 @@
       <c r="D23" s="1">
         <v>55.128333329999997</v>
       </c>
-      <c r="F23" s="1">
-        <v>67.723333330000003</v>
-      </c>
-      <c r="G23" s="1">
-        <v>37.723333330000003</v>
-      </c>
-      <c r="J23" s="1">
-        <v>120.4619048</v>
-      </c>
-      <c r="K23" s="1">
-        <v>-12</v>
-      </c>
-      <c r="N23" s="1">
-        <v>149.6240741</v>
-      </c>
-      <c r="O23" s="1">
-        <v>153.25740740000001</v>
+      <c r="F23">
+        <v>50.133333333333297</v>
+      </c>
+      <c r="G23">
+        <v>56.886666666666621</v>
+      </c>
+      <c r="J23">
+        <v>84.419047619047575</v>
+      </c>
+      <c r="K23">
+        <v>22.25555555555551</v>
+      </c>
+      <c r="N23">
+        <v>154.84666666666629</v>
+      </c>
+      <c r="O23">
+        <v>155.29999999999959</v>
       </c>
       <c r="R23">
-        <v>153.98452380952341</v>
+        <v>157.62857142857081</v>
       </c>
       <c r="S23">
-        <v>142.9805555555549</v>
+        <v>148.98888888888831</v>
       </c>
     </row>
     <row r="24" spans="3:19">
@@ -4706,29 +4706,29 @@
       <c r="D24" s="1">
         <v>57.958333330000002</v>
       </c>
-      <c r="F24" s="1">
-        <v>71.278333329999995</v>
-      </c>
-      <c r="G24" s="1">
-        <v>39.028333330000002</v>
-      </c>
-      <c r="J24" s="1">
-        <v>122.85595240000001</v>
-      </c>
-      <c r="K24" s="1">
-        <v>-10.21944444</v>
-      </c>
-      <c r="N24" s="1">
-        <v>156.71851849999999</v>
-      </c>
-      <c r="O24" s="1">
-        <v>159.88148150000001</v>
+      <c r="F24">
+        <v>52.453333333333305</v>
+      </c>
+      <c r="G24">
+        <v>59.319999999999958</v>
+      </c>
+      <c r="J24">
+        <v>88.961904761904734</v>
+      </c>
+      <c r="K24">
+        <v>22.666666666666611</v>
+      </c>
+      <c r="N24">
+        <v>161.62666666666627</v>
+      </c>
+      <c r="O24">
+        <v>162.12666666666638</v>
       </c>
       <c r="R24">
-        <v>161.07261904761859</v>
+        <v>164.91904761904709</v>
       </c>
       <c r="S24">
-        <v>149.3083333333328</v>
+        <v>155.34444444444404</v>
       </c>
     </row>
     <row r="25" spans="3:19">
@@ -4738,29 +4738,29 @@
       <c r="D25" s="1">
         <v>60.67166667</v>
       </c>
-      <c r="F25" s="1">
-        <v>75.093333329999993</v>
-      </c>
-      <c r="G25" s="1">
-        <v>40.253333329999997</v>
-      </c>
-      <c r="J25" s="1">
-        <v>126.3416667</v>
-      </c>
-      <c r="K25" s="1">
-        <v>-8.8194444440000002</v>
-      </c>
-      <c r="N25" s="1">
-        <v>163.2759259</v>
-      </c>
-      <c r="O25" s="1">
-        <v>166.96111110000001</v>
+      <c r="F25">
+        <v>56.279999999999973</v>
+      </c>
+      <c r="G25">
+        <v>60.399999999999977</v>
+      </c>
+      <c r="J25">
+        <v>91.285714285714235</v>
+      </c>
+      <c r="K25">
+        <v>25.288888888888845</v>
+      </c>
+      <c r="N25">
+        <v>168.38666666666629</v>
+      </c>
+      <c r="O25">
+        <v>168.89333333333298</v>
       </c>
       <c r="R25">
-        <v>168.07738095238039</v>
+        <v>172.00476190476147</v>
       </c>
       <c r="S25">
-        <v>155.28611111111078</v>
+        <v>161.94444444444403</v>
       </c>
     </row>
     <row r="26" spans="3:19">
@@ -4770,29 +4770,29 @@
       <c r="D26" s="1">
         <v>62.936666670000001</v>
       </c>
-      <c r="F26" s="1">
-        <v>78.41</v>
-      </c>
-      <c r="G26" s="1">
-        <v>42.52333333</v>
-      </c>
-      <c r="J26" s="1">
-        <v>129.64285709999999</v>
-      </c>
-      <c r="K26" s="1">
-        <v>-7.2111111110000001</v>
-      </c>
-      <c r="N26" s="1">
-        <v>169.78148150000001</v>
-      </c>
-      <c r="O26" s="1">
-        <v>174.1074074</v>
+      <c r="F26">
+        <v>60.25999999999997</v>
+      </c>
+      <c r="G26">
+        <v>61.379999999999974</v>
+      </c>
+      <c r="J26">
+        <v>94.838095238095008</v>
+      </c>
+      <c r="K26">
+        <v>26.666666666666622</v>
+      </c>
+      <c r="N26">
+        <v>175.23333333333289</v>
+      </c>
+      <c r="O26">
+        <v>175.73999999999972</v>
       </c>
       <c r="R26">
-        <v>175.30595238095188</v>
+        <v>178.89999999999969</v>
       </c>
       <c r="S26">
-        <v>160.83055555555501</v>
+        <v>168.29999999999956</v>
       </c>
     </row>
     <row r="27" spans="3:19">
@@ -4802,29 +4802,29 @@
       <c r="D27" s="1">
         <v>65.618333329999999</v>
       </c>
-      <c r="F27" s="1">
-        <v>80.736666670000005</v>
-      </c>
-      <c r="G27" s="1">
-        <v>44.89</v>
-      </c>
-      <c r="J27" s="1">
-        <v>132.3464286</v>
-      </c>
-      <c r="K27" s="1">
-        <v>-5.386111111</v>
-      </c>
-      <c r="N27" s="1">
-        <v>176.43333329999999</v>
-      </c>
-      <c r="O27" s="1">
-        <v>180.49259259999999</v>
+      <c r="F27">
+        <v>64.8333333333333</v>
+      </c>
+      <c r="G27">
+        <v>61.579999999999963</v>
+      </c>
+      <c r="J27">
+        <v>97.747619047618883</v>
+      </c>
+      <c r="K27">
+        <v>28.755555555555521</v>
+      </c>
+      <c r="N27">
+        <v>181.84666666666641</v>
+      </c>
+      <c r="O27">
+        <v>182.65999999999968</v>
       </c>
       <c r="R27">
-        <v>182.26904761904723</v>
+        <v>185.79047619047569</v>
       </c>
       <c r="S27">
-        <v>166.6611111111107</v>
+        <v>174.62222222222172</v>
       </c>
     </row>
     <row r="28" spans="3:19">
@@ -4834,29 +4834,29 @@
       <c r="D28" s="1">
         <v>67.881666670000001</v>
       </c>
-      <c r="F28" s="1">
-        <v>84.405000000000001</v>
-      </c>
-      <c r="G28" s="1">
-        <v>46.28833333</v>
-      </c>
-      <c r="J28" s="1">
-        <v>136.38928569999999</v>
-      </c>
-      <c r="K28" s="1">
-        <v>-3.863888889</v>
-      </c>
-      <c r="N28" s="1">
-        <v>182.8648148</v>
-      </c>
-      <c r="O28" s="1">
-        <v>187.06851850000001</v>
+      <c r="F28">
+        <v>67.039999999999978</v>
+      </c>
+      <c r="G28">
+        <v>64.119999999999976</v>
+      </c>
+      <c r="J28">
+        <v>100.61428571428542</v>
+      </c>
+      <c r="K28">
+        <v>30.855555555555508</v>
+      </c>
+      <c r="N28">
+        <v>188.54666666666628</v>
+      </c>
+      <c r="O28">
+        <v>189.62666666666632</v>
       </c>
       <c r="R28">
-        <v>189.39166666666628</v>
+        <v>192.723809523809</v>
       </c>
       <c r="S28">
-        <v>172.09722222222177</v>
+        <v>180.76666666666611</v>
       </c>
     </row>
     <row r="29" spans="3:19">
@@ -4866,29 +4866,29 @@
       <c r="D29" s="1">
         <v>70.358333329999994</v>
       </c>
-      <c r="F29" s="1">
-        <v>87.86</v>
-      </c>
-      <c r="G29" s="1">
-        <v>47.76</v>
-      </c>
-      <c r="J29" s="1">
-        <v>139.49285710000001</v>
-      </c>
-      <c r="K29" s="1">
-        <v>-1.994444444</v>
-      </c>
-      <c r="N29" s="1">
-        <v>189.38148150000001</v>
-      </c>
-      <c r="O29" s="1">
-        <v>193.7148148</v>
+      <c r="F29">
+        <v>70.066666666666634</v>
+      </c>
+      <c r="G29">
+        <v>66.093333333333291</v>
+      </c>
+      <c r="J29">
+        <v>103.25238095238053</v>
+      </c>
+      <c r="K29">
+        <v>33.144444444444396</v>
+      </c>
+      <c r="N29">
+        <v>195.333333333333</v>
+      </c>
+      <c r="O29">
+        <v>196.23999999999972</v>
       </c>
       <c r="R29">
-        <v>195.9690476190471</v>
+        <v>199.46666666666621</v>
       </c>
       <c r="S29">
-        <v>178.3277777777775</v>
+        <v>187.01111111111061</v>
       </c>
     </row>
     <row r="30" spans="3:19">
@@ -4898,29 +4898,29 @@
       <c r="D30" s="1">
         <v>72.796666669999993</v>
       </c>
-      <c r="F30" s="1">
-        <v>90.89833333</v>
-      </c>
-      <c r="G30" s="1">
-        <v>49.201666670000002</v>
-      </c>
-      <c r="J30" s="1">
-        <v>141.952381</v>
-      </c>
-      <c r="K30" s="1">
-        <v>-0.4</v>
-      </c>
-      <c r="N30" s="1">
-        <v>195.77222219999999</v>
-      </c>
-      <c r="O30" s="1">
-        <v>200.4648148</v>
+      <c r="F30">
+        <v>72.206666666666635</v>
+      </c>
+      <c r="G30">
+        <v>68.893333333333302</v>
+      </c>
+      <c r="J30">
+        <v>107.1333333333329</v>
+      </c>
+      <c r="K30">
+        <v>34.288888888888849</v>
+      </c>
+      <c r="N30">
+        <v>202.053333333333</v>
+      </c>
+      <c r="O30">
+        <v>202.68666666666627</v>
       </c>
       <c r="R30">
-        <v>202.74880952380892</v>
+        <v>206.0809523809518</v>
       </c>
       <c r="S30">
-        <v>184.3638888888886</v>
+        <v>193.54444444444397</v>
       </c>
     </row>
     <row r="31" spans="3:19">
@@ -4930,29 +4930,29 @@
       <c r="D31" s="1">
         <v>75.046666669999993</v>
       </c>
-      <c r="F31" s="1">
-        <v>93.52</v>
-      </c>
-      <c r="G31" s="1">
-        <v>51.073333329999997</v>
-      </c>
-      <c r="J31" s="1">
-        <v>144.02261899999999</v>
-      </c>
-      <c r="K31" s="1">
-        <v>2.0916666670000001</v>
-      </c>
-      <c r="N31" s="1">
-        <v>201.52407410000001</v>
-      </c>
-      <c r="O31" s="1">
-        <v>207.20185190000001</v>
+      <c r="F31">
+        <v>74.919999999999973</v>
+      </c>
+      <c r="G31">
+        <v>71.159999999999954</v>
+      </c>
+      <c r="J31">
+        <v>111.01428571428525</v>
+      </c>
+      <c r="K31">
+        <v>35.333333333333272</v>
+      </c>
+      <c r="N31">
+        <v>208.58666666666642</v>
+      </c>
+      <c r="O31">
+        <v>209.42666666666628</v>
       </c>
       <c r="R31">
-        <v>209.73095238095181</v>
+        <v>212.80952380952363</v>
       </c>
       <c r="S31">
-        <v>190.11666666666616</v>
+        <v>199.77777777777752</v>
       </c>
     </row>
     <row r="32" spans="3:19">
@@ -4962,29 +4962,29 @@
       <c r="D32" s="1">
         <v>77.403333329999995</v>
       </c>
-      <c r="F32" s="1">
-        <v>96.098333330000003</v>
-      </c>
-      <c r="G32" s="1">
-        <v>53.015000000000001</v>
-      </c>
-      <c r="J32" s="1">
-        <v>145.84404760000001</v>
-      </c>
-      <c r="K32" s="1">
-        <v>4.5083333330000004</v>
-      </c>
-      <c r="N32" s="1">
-        <v>207.81111110000001</v>
-      </c>
-      <c r="O32" s="1">
-        <v>213.57407409999999</v>
+      <c r="F32">
+        <v>76.81333333333329</v>
+      </c>
+      <c r="G32">
+        <v>74.193333333333271</v>
+      </c>
+      <c r="J32">
+        <v>114.68095238095182</v>
+      </c>
+      <c r="K32">
+        <v>36.533333333333282</v>
+      </c>
+      <c r="N32">
+        <v>215.20666666666639</v>
+      </c>
+      <c r="O32">
+        <v>215.79333333333301</v>
       </c>
       <c r="R32">
-        <v>215.90357142857087</v>
+        <v>219.63809523809468</v>
       </c>
       <c r="S32">
-        <v>196.93611111111059</v>
+        <v>205.8555555555551</v>
       </c>
     </row>
     <row r="33" spans="3:19">
@@ -4994,29 +4994,29 @@
       <c r="D33" s="1">
         <v>80.14833333</v>
       </c>
-      <c r="F33" s="1">
-        <v>99.381666670000001</v>
-      </c>
-      <c r="G33" s="1">
-        <v>55.17166667</v>
-      </c>
-      <c r="J33" s="1">
-        <v>150.0166667</v>
-      </c>
-      <c r="K33" s="1">
-        <v>5.3388888889999997</v>
-      </c>
-      <c r="N33" s="1">
-        <v>213.6518519</v>
-      </c>
-      <c r="O33" s="1">
-        <v>220.14814809999999</v>
+      <c r="F33">
+        <v>78.639999999999958</v>
+      </c>
+      <c r="G33">
+        <v>77.29333333333328</v>
+      </c>
+      <c r="J33">
+        <v>116.9857142857139</v>
+      </c>
+      <c r="K33">
+        <v>39.122222222222206</v>
+      </c>
+      <c r="N33">
+        <v>221.3599999999995</v>
+      </c>
+      <c r="O33">
+        <v>221.99999999999949</v>
       </c>
       <c r="R33">
-        <v>222.27142857142798</v>
+        <v>226.10952380952321</v>
       </c>
       <c r="S33">
-        <v>203.03333333333279</v>
+        <v>211.56666666666629</v>
       </c>
     </row>
     <row r="34" spans="3:19">
@@ -5026,29 +5026,29 @@
       <c r="D34" s="1">
         <v>82.598333330000003</v>
       </c>
-      <c r="F34" s="1">
-        <v>101.855</v>
-      </c>
-      <c r="G34" s="1">
-        <v>57.284999999999997</v>
-      </c>
-      <c r="J34" s="1">
-        <v>154.02976190000001</v>
-      </c>
-      <c r="K34" s="1">
-        <v>6.1638888889999999</v>
-      </c>
-      <c r="N34" s="1">
-        <v>220.2222222</v>
-      </c>
-      <c r="O34" s="1">
-        <v>226.0814815</v>
+      <c r="F34">
+        <v>80.406666666666624</v>
+      </c>
+      <c r="G34">
+        <v>80.373333333333292</v>
+      </c>
+      <c r="J34">
+        <v>119.81904761904703</v>
+      </c>
+      <c r="K34">
+        <v>41.133333333333283</v>
+      </c>
+      <c r="N34">
+        <v>227.82666666666643</v>
+      </c>
+      <c r="O34">
+        <v>228.53333333333302</v>
       </c>
       <c r="R34">
-        <v>228.85119047618997</v>
+        <v>232.5428571428566</v>
       </c>
       <c r="S34">
-        <v>208.32499999999951</v>
+        <v>217.3555555555553</v>
       </c>
     </row>
     <row r="35" spans="3:19">
@@ -5058,29 +5058,29 @@
       <c r="D35" s="1">
         <v>84.986666670000005</v>
       </c>
-      <c r="F35" s="1">
-        <v>104.34</v>
-      </c>
-      <c r="G35" s="1">
-        <v>59.873333330000001</v>
-      </c>
-      <c r="J35" s="1">
-        <v>158.1571429</v>
-      </c>
-      <c r="K35" s="1">
-        <v>6.8333333329999997</v>
-      </c>
-      <c r="N35" s="1">
-        <v>225.91481479999999</v>
-      </c>
-      <c r="O35" s="1">
-        <v>232.44074069999999</v>
+      <c r="F35">
+        <v>83.426666666666634</v>
+      </c>
+      <c r="G35">
+        <v>82.226666666666617</v>
+      </c>
+      <c r="J35">
+        <v>123.2190476190472</v>
+      </c>
+      <c r="K35">
+        <v>42.799999999999969</v>
+      </c>
+      <c r="N35">
+        <v>234.30666666666633</v>
+      </c>
+      <c r="O35">
+        <v>234.89999999999981</v>
       </c>
       <c r="R35">
-        <v>235.03095238095199</v>
+        <v>239.09523809523756</v>
       </c>
       <c r="S35">
-        <v>214.14999999999958</v>
+        <v>223.3555555555551</v>
       </c>
     </row>
     <row r="36" spans="3:19">
@@ -5090,29 +5090,29 @@
       <c r="D36" s="1">
         <v>87.48</v>
       </c>
-      <c r="F36" s="1">
-        <v>106.625</v>
-      </c>
-      <c r="G36" s="1">
-        <v>62.481666670000003</v>
-      </c>
-      <c r="J36" s="1">
-        <v>161.82857139999999</v>
-      </c>
-      <c r="K36" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="N36" s="1">
-        <v>231.65</v>
-      </c>
-      <c r="O36" s="1">
-        <v>238.16481479999999</v>
+      <c r="F36">
+        <v>86.246666666666584</v>
+      </c>
+      <c r="G36">
+        <v>84.393333333333288</v>
+      </c>
+      <c r="J36">
+        <v>125.9999999999997</v>
+      </c>
+      <c r="K36">
+        <v>45.044444444444402</v>
+      </c>
+      <c r="N36">
+        <v>240.30666666666639</v>
+      </c>
+      <c r="O36">
+        <v>240.66666666666637</v>
       </c>
       <c r="R36">
-        <v>240.7678571428566</v>
+        <v>245.46190476190424</v>
       </c>
       <c r="S36">
-        <v>220.31944444444412</v>
+        <v>229.27777777777732</v>
       </c>
     </row>
     <row r="37" spans="3:19">
@@ -5122,29 +5122,29 @@
       <c r="D37" s="1">
         <v>89.986666670000005</v>
       </c>
-      <c r="F37" s="1">
-        <v>108.8733333</v>
-      </c>
-      <c r="G37" s="1">
-        <v>65.373333329999994</v>
-      </c>
-      <c r="J37" s="1">
-        <v>165.72261900000001</v>
-      </c>
-      <c r="K37" s="1">
-        <v>9.5916666670000001</v>
-      </c>
-      <c r="N37" s="1">
-        <v>237.38888890000001</v>
-      </c>
-      <c r="O37" s="1">
-        <v>243.3666667</v>
+      <c r="F37">
+        <v>87.973333333333215</v>
+      </c>
+      <c r="G37">
+        <v>87.699999999999989</v>
+      </c>
+      <c r="J37">
+        <v>128.41428571428531</v>
+      </c>
+      <c r="K37">
+        <v>47.555555555555515</v>
+      </c>
+      <c r="N37">
+        <v>246.25999999999948</v>
+      </c>
+      <c r="O37">
+        <v>246.71999999999971</v>
       </c>
       <c r="R37">
-        <v>246.0273809523805</v>
+        <v>251.59523809523753</v>
       </c>
       <c r="S37">
-        <v>226.94722222222163</v>
+        <v>233.95555555555507</v>
       </c>
     </row>
     <row r="38" spans="3:19">
@@ -5154,29 +5154,29 @@
       <c r="D38" s="1">
         <v>92.671666669999993</v>
       </c>
-      <c r="F38" s="1">
-        <v>111.17</v>
-      </c>
-      <c r="G38" s="1">
-        <v>67.876666670000006</v>
-      </c>
-      <c r="J38" s="1">
-        <v>168.68452379999999</v>
-      </c>
-      <c r="K38" s="1">
-        <v>10.95833333</v>
-      </c>
-      <c r="N38" s="1">
-        <v>242.8740741</v>
-      </c>
-      <c r="O38" s="1">
-        <v>248.562963</v>
+      <c r="F38">
+        <v>90.419999999999916</v>
+      </c>
+      <c r="G38">
+        <v>90.139999999999958</v>
+      </c>
+      <c r="J38">
+        <v>130.85714285714238</v>
+      </c>
+      <c r="K38">
+        <v>50.111111111111065</v>
+      </c>
+      <c r="N38">
+        <v>251.77999999999975</v>
+      </c>
+      <c r="O38">
+        <v>252.43999999999951</v>
       </c>
       <c r="R38">
-        <v>251.62142857142823</v>
+        <v>257.69047619047569</v>
       </c>
       <c r="S38">
-        <v>232.98333333333298</v>
+        <v>239.2444444444439</v>
       </c>
     </row>
     <row r="39" spans="3:19">
@@ -5186,29 +5186,29 @@
       <c r="D39" s="1">
         <v>95.21</v>
       </c>
-      <c r="F39" s="1">
-        <v>113.58499999999999</v>
-      </c>
-      <c r="G39" s="1">
-        <v>70.188333330000006</v>
-      </c>
-      <c r="J39" s="1">
-        <v>172.65952379999999</v>
-      </c>
-      <c r="K39" s="1">
-        <v>12.16111111</v>
-      </c>
-      <c r="N39" s="1">
-        <v>248.05925930000001</v>
-      </c>
-      <c r="O39" s="1">
-        <v>253.15555560000001</v>
+      <c r="F39">
+        <v>91.853333333333168</v>
+      </c>
+      <c r="G39">
+        <v>93.699999999999918</v>
+      </c>
+      <c r="J39">
+        <v>133.43333333333291</v>
+      </c>
+      <c r="K39">
+        <v>52.422222222222182</v>
+      </c>
+      <c r="N39">
+        <v>256.86666666666622</v>
+      </c>
+      <c r="O39">
+        <v>258.19333333333327</v>
       </c>
       <c r="R39">
-        <v>257.11190476190438</v>
+        <v>263.28571428571365</v>
       </c>
       <c r="S39">
-        <v>237.46111111111082</v>
+        <v>244.64444444444402</v>
       </c>
     </row>
     <row r="40" spans="3:19">
@@ -5218,29 +5218,29 @@
       <c r="D40" s="1">
         <v>97.606666669999996</v>
       </c>
-      <c r="F40" s="1">
-        <v>115.87166670000001</v>
-      </c>
-      <c r="G40" s="1">
-        <v>72.928333330000001</v>
-      </c>
-      <c r="J40" s="1">
-        <v>175.71666669999999</v>
-      </c>
-      <c r="K40" s="1">
-        <v>14.394444439999999</v>
-      </c>
-      <c r="N40" s="1">
-        <v>253.09629630000001</v>
-      </c>
-      <c r="O40" s="1">
-        <v>258.00740739999998</v>
+      <c r="F40">
+        <v>94.553333333333214</v>
+      </c>
+      <c r="G40">
+        <v>95.859999999999815</v>
+      </c>
+      <c r="J40">
+        <v>136.16666666666612</v>
+      </c>
+      <c r="K40">
+        <v>54.633333333333283</v>
+      </c>
+      <c r="N40">
+        <v>262.39999999999969</v>
+      </c>
+      <c r="O40">
+        <v>263.75333333333299</v>
       </c>
       <c r="R40">
-        <v>261.8011904761899</v>
+        <v>268.2047619047616</v>
       </c>
       <c r="S40">
-        <v>242.43055555555503</v>
+        <v>248.98888888888843</v>
       </c>
     </row>
     <row r="41" spans="3:19">
@@ -5250,29 +5250,29 @@
       <c r="D41" s="1">
         <v>100.1483333</v>
       </c>
-      <c r="F41" s="1">
-        <v>118.0516667</v>
-      </c>
-      <c r="G41" s="1">
-        <v>76.121666669999996</v>
-      </c>
-      <c r="J41" s="1">
-        <v>179.0404762</v>
-      </c>
-      <c r="K41" s="1">
-        <v>16.13888889</v>
-      </c>
-      <c r="N41" s="1">
-        <v>258.05925930000001</v>
-      </c>
-      <c r="O41" s="1">
-        <v>262.36296299999998</v>
+      <c r="F41">
+        <v>96.753333333333188</v>
+      </c>
+      <c r="G41">
+        <v>98.55999999999986</v>
+      </c>
+      <c r="J41">
+        <v>139.6047619047614</v>
+      </c>
+      <c r="K41">
+        <v>56.099999999999945</v>
+      </c>
+      <c r="N41">
+        <v>267.35999999999984</v>
+      </c>
+      <c r="O41">
+        <v>268.70666666666631</v>
       </c>
       <c r="R41">
-        <v>266.49880952380903</v>
+        <v>273.42380952380915</v>
       </c>
       <c r="S41">
-        <v>247.14722222222181</v>
+        <v>253.7222222222218</v>
       </c>
     </row>
     <row r="42" spans="3:19">
@@ -5282,29 +5282,29 @@
       <c r="D42" s="1">
         <v>102.8733333</v>
       </c>
-      <c r="F42" s="1">
-        <v>120.205</v>
-      </c>
-      <c r="G42" s="1">
-        <v>79.221666670000005</v>
-      </c>
-      <c r="J42" s="1">
-        <v>182.28928569999999</v>
-      </c>
-      <c r="K42" s="1">
-        <v>17.380555560000001</v>
-      </c>
-      <c r="N42" s="1">
-        <v>262.36481479999998</v>
-      </c>
-      <c r="O42" s="1">
-        <v>266.25740739999998</v>
+      <c r="F42">
+        <v>98.646666666666391</v>
+      </c>
+      <c r="G42">
+        <v>101.64666666666653</v>
+      </c>
+      <c r="J42">
+        <v>141.46190476190429</v>
+      </c>
+      <c r="K42">
+        <v>59.211111111111066</v>
+      </c>
+      <c r="N42">
+        <v>271.15999999999951</v>
+      </c>
+      <c r="O42">
+        <v>272.58666666666619</v>
       </c>
       <c r="R42">
-        <v>270.37261904761846</v>
+        <v>278.49047619047559</v>
       </c>
       <c r="S42">
-        <v>251.71944444444375</v>
+        <v>258.39999999999952</v>
       </c>
     </row>
     <row r="43" spans="3:19">
@@ -5314,29 +5314,29 @@
       <c r="D43" s="1">
         <v>105.64</v>
       </c>
-      <c r="F43" s="1">
-        <v>121.905</v>
-      </c>
-      <c r="G43" s="1">
-        <v>82.341666669999995</v>
-      </c>
-      <c r="J43" s="1">
-        <v>184.28333330000001</v>
-      </c>
-      <c r="K43" s="1">
-        <v>20.783333330000001</v>
-      </c>
-      <c r="N43" s="1">
-        <v>265.92407409999998</v>
-      </c>
-      <c r="O43" s="1">
-        <v>269.0981481</v>
+      <c r="F43">
+        <v>102.05999999999975</v>
+      </c>
+      <c r="G43">
+        <v>102.91999999999987</v>
+      </c>
+      <c r="J43">
+        <v>144.60952380952341</v>
+      </c>
+      <c r="K43">
+        <v>61.13333333333329</v>
+      </c>
+      <c r="N43">
+        <v>274.31333333333305</v>
+      </c>
+      <c r="O43">
+        <v>276.44666666666626</v>
       </c>
       <c r="R43">
-        <v>273.3440476190471</v>
+        <v>282.30952380952345</v>
       </c>
       <c r="S43">
-        <v>256.16388888888849</v>
+        <v>262.11111111111069</v>
       </c>
     </row>
     <row r="44" spans="3:19">
@@ -5346,29 +5346,29 @@
       <c r="D44" s="1">
         <v>108.0433333</v>
       </c>
-      <c r="F44" s="1">
-        <v>123.7283333</v>
-      </c>
-      <c r="G44" s="1">
-        <v>86.025000000000006</v>
-      </c>
-      <c r="J44" s="1">
-        <v>186.32023810000001</v>
-      </c>
-      <c r="K44" s="1">
-        <v>23.26388889</v>
-      </c>
-      <c r="N44" s="1">
-        <v>269.12407409999997</v>
-      </c>
-      <c r="O44" s="1">
-        <v>271.69814810000003</v>
+      <c r="F44">
+        <v>104.10666666666646</v>
+      </c>
+      <c r="G44">
+        <v>106.11999999999973</v>
+      </c>
+      <c r="J44">
+        <v>147.71904761904722</v>
+      </c>
+      <c r="K44">
+        <v>62.97777777777776</v>
+      </c>
+      <c r="N44">
+        <v>277.59333333333302</v>
+      </c>
+      <c r="O44">
+        <v>279.53333333333308</v>
       </c>
       <c r="R44">
-        <v>275.85952380952313</v>
+        <v>285.67619047619007</v>
       </c>
       <c r="S44">
-        <v>259.34999999999951</v>
+        <v>266.38888888888852</v>
       </c>
     </row>
     <row r="45" spans="3:19">
@@ -5378,29 +5378,29 @@
       <c r="D45" s="1">
         <v>110.345</v>
       </c>
-      <c r="F45" s="1">
-        <v>125.3983333</v>
-      </c>
-      <c r="G45" s="1">
-        <v>89.655000000000001</v>
-      </c>
-      <c r="J45" s="1">
-        <v>187.98690479999999</v>
-      </c>
-      <c r="K45" s="1">
-        <v>26.19722222</v>
-      </c>
-      <c r="N45" s="1">
-        <v>271.82407410000002</v>
-      </c>
-      <c r="O45" s="1">
-        <v>273.93888889999999</v>
+      <c r="F45">
+        <v>106.84666666666639</v>
+      </c>
+      <c r="G45">
+        <v>108.393333333333</v>
+      </c>
+      <c r="J45">
+        <v>151.19999999999959</v>
+      </c>
+      <c r="K45">
+        <v>64.499999999999957</v>
+      </c>
+      <c r="N45">
+        <v>280.15999999999968</v>
+      </c>
+      <c r="O45">
+        <v>281.42666666666634</v>
       </c>
       <c r="R45">
-        <v>277.41309523809457</v>
+        <v>286.39523809523769</v>
       </c>
       <c r="S45">
-        <v>263.04722222222205</v>
+        <v>269.36666666666605</v>
       </c>
     </row>
     <row r="46" spans="3:19">
@@ -5410,29 +5410,29 @@
       <c r="D46" s="1">
         <v>112.895</v>
       </c>
-      <c r="F46" s="1">
-        <v>126.825</v>
-      </c>
-      <c r="G46" s="1">
-        <v>93.408333330000005</v>
-      </c>
-      <c r="J46" s="1">
-        <v>189.65595239999999</v>
-      </c>
-      <c r="K46" s="1">
-        <v>29.925000000000001</v>
-      </c>
-      <c r="N46" s="1">
-        <v>273.68518519999998</v>
-      </c>
-      <c r="O46" s="1">
-        <v>275.11481479999998</v>
+      <c r="F46">
+        <v>109.15999999999977</v>
+      </c>
+      <c r="G46">
+        <v>111.1399999999996</v>
+      </c>
+      <c r="J46">
+        <v>152.90476190476141</v>
+      </c>
+      <c r="K46">
+        <v>67.922222222222189</v>
+      </c>
+      <c r="N46">
+        <v>280.55999999999966</v>
+      </c>
+      <c r="O46">
+        <v>282.03333333333319</v>
       </c>
       <c r="R46">
-        <v>277.84404761904699</v>
+        <v>285.5999999999998</v>
       </c>
       <c r="S46">
-        <v>265.89722222222179</v>
+        <v>271.18888888888847</v>
       </c>
     </row>
     <row r="47" spans="3:19">
@@ -5442,29 +5442,29 @@
       <c r="D47" s="1">
         <v>115.58499999999999</v>
       </c>
-      <c r="F47" s="1">
-        <v>127.9833333</v>
-      </c>
-      <c r="G47" s="1">
-        <v>97.156666670000007</v>
-      </c>
-      <c r="J47" s="1">
-        <v>190.96071430000001</v>
-      </c>
-      <c r="K47" s="1">
-        <v>33.147222220000003</v>
-      </c>
-      <c r="N47" s="1">
-        <v>274.28888890000002</v>
-      </c>
-      <c r="O47" s="1">
-        <v>275.62962959999999</v>
+      <c r="F47">
+        <v>112.47333333333309</v>
+      </c>
+      <c r="G47">
+        <v>112.6333333333329</v>
+      </c>
+      <c r="J47">
+        <v>155.78571428571379</v>
+      </c>
+      <c r="K47">
+        <v>69.966666666666626</v>
+      </c>
+      <c r="N47">
+        <v>280.65999999999957</v>
+      </c>
+      <c r="O47">
+        <v>281.97999999999979</v>
       </c>
       <c r="R47">
-        <v>277.40476190476141</v>
+        <v>283.92857142857122</v>
       </c>
       <c r="S47">
-        <v>267.61111111111063</v>
+        <v>273.4666666666663</v>
       </c>
     </row>
     <row r="48" spans="3:19">
@@ -5474,29 +5474,29 @@
       <c r="D48" s="1">
         <v>117.9566667</v>
       </c>
-      <c r="F48" s="1">
-        <v>129.18666669999999</v>
-      </c>
-      <c r="G48" s="1">
-        <v>100.5466667</v>
-      </c>
-      <c r="J48" s="1">
-        <v>191.8380952</v>
-      </c>
-      <c r="K48" s="1">
-        <v>37.155555560000003</v>
-      </c>
-      <c r="N48" s="1">
-        <v>274.81666669999998</v>
-      </c>
-      <c r="O48" s="1">
-        <v>274.92407409999998</v>
+      <c r="F48">
+        <v>114.10666666666641</v>
+      </c>
+      <c r="G48">
+        <v>115.97333333333302</v>
+      </c>
+      <c r="J48">
+        <v>159.77619047619001</v>
+      </c>
+      <c r="K48">
+        <v>70.988888888888852</v>
+      </c>
+      <c r="N48">
+        <v>280.2133333333332</v>
+      </c>
+      <c r="O48">
+        <v>281.11333333333323</v>
       </c>
       <c r="R48">
-        <v>276.9023809523805</v>
+        <v>281.79523809523801</v>
       </c>
       <c r="S48">
-        <v>269.07222222222174</v>
+        <v>274.32222222222191</v>
       </c>
     </row>
     <row r="49" spans="3:19">
@@ -5506,29 +5506,29 @@
       <c r="D49" s="1">
         <v>120.6483333</v>
       </c>
-      <c r="F49" s="1">
-        <v>130.9866667</v>
-      </c>
-      <c r="G49" s="1">
-        <v>103.84</v>
-      </c>
-      <c r="J49" s="1">
-        <v>193.21904760000001</v>
-      </c>
-      <c r="K49" s="1">
-        <v>41.388888889999997</v>
-      </c>
-      <c r="N49" s="1">
-        <v>274.44814810000003</v>
-      </c>
-      <c r="O49" s="1">
-        <v>273.96666670000002</v>
+      <c r="F49">
+        <v>116.15999999999967</v>
+      </c>
+      <c r="G49">
+        <v>118.87333333333299</v>
+      </c>
+      <c r="J49">
+        <v>161.4952380952376</v>
+      </c>
+      <c r="K49">
+        <v>74.399999999999963</v>
+      </c>
+      <c r="N49">
+        <v>278.64666666666648</v>
+      </c>
+      <c r="O49">
+        <v>279.19999999999993</v>
       </c>
       <c r="R49">
-        <v>275.57261904761873</v>
+        <v>279.9571428571428</v>
       </c>
       <c r="S49">
-        <v>270.27499999999958</v>
+        <v>274.63333333333287</v>
       </c>
     </row>
     <row r="50" spans="3:19">
@@ -5538,29 +5538,29 @@
       <c r="D50" s="1">
         <v>123.4033333</v>
       </c>
-      <c r="F50" s="1">
-        <v>132.72499999999999</v>
-      </c>
-      <c r="G50" s="1">
-        <v>107.06833330000001</v>
-      </c>
-      <c r="J50" s="1">
-        <v>195.27619050000001</v>
-      </c>
-      <c r="K50" s="1">
-        <v>43.922222220000002</v>
-      </c>
-      <c r="N50" s="1">
-        <v>274.01666669999997</v>
-      </c>
-      <c r="O50" s="1">
-        <v>272.73148149999997</v>
+      <c r="F50">
+        <v>117.61333333333312</v>
+      </c>
+      <c r="G50">
+        <v>122.5199999999996</v>
+      </c>
+      <c r="J50">
+        <v>163.59047619047581</v>
+      </c>
+      <c r="K50">
+        <v>77.233333333333277</v>
+      </c>
+      <c r="N50">
+        <v>277.04666666666662</v>
+      </c>
+      <c r="O50">
+        <v>277.15333333333331</v>
       </c>
       <c r="R50">
-        <v>274.19166666666604</v>
+        <v>277.5</v>
       </c>
       <c r="S50">
-        <v>270.69722222222168</v>
+        <v>274.41111111111076</v>
       </c>
     </row>
     <row r="51" spans="3:19">
@@ -5570,29 +5570,29 @@
       <c r="D51" s="1">
         <v>125.87166670000001</v>
       </c>
-      <c r="F51" s="1">
-        <v>134.43</v>
-      </c>
-      <c r="G51" s="1">
-        <v>110.3233333</v>
-      </c>
-      <c r="J51" s="1">
-        <v>196.31547620000001</v>
-      </c>
-      <c r="K51" s="1">
-        <v>47.96388889</v>
-      </c>
-      <c r="N51" s="1">
-        <v>272.40925929999997</v>
-      </c>
-      <c r="O51" s="1">
-        <v>271.50185190000002</v>
+      <c r="F51">
+        <v>119.99333333333297</v>
+      </c>
+      <c r="G51">
+        <v>125.19999999999959</v>
+      </c>
+      <c r="J51">
+        <v>164.84761904761859</v>
+      </c>
+      <c r="K51">
+        <v>81.1666666666666</v>
+      </c>
+      <c r="N51">
+        <v>274.92666666666662</v>
+      </c>
+      <c r="O51">
+        <v>274.90666666666658</v>
       </c>
       <c r="R51">
-        <v>272.31547619047575</v>
+        <v>275</v>
       </c>
       <c r="S51">
-        <v>270.34166666666607</v>
+        <v>272.99999999999977</v>
       </c>
     </row>
     <row r="52" spans="3:19">
@@ -5602,29 +5602,29 @@
       <c r="D52" s="1">
         <v>128.16499999999999</v>
       </c>
-      <c r="F52" s="1">
-        <v>136.01833329999999</v>
-      </c>
-      <c r="G52" s="1">
-        <v>114.0283333</v>
-      </c>
-      <c r="J52" s="1">
-        <v>197.30357140000001</v>
-      </c>
-      <c r="K52" s="1">
-        <v>52.836111109999997</v>
-      </c>
-      <c r="N52" s="1">
-        <v>270.88703700000002</v>
-      </c>
-      <c r="O52" s="1">
-        <v>269.62407409999997</v>
+      <c r="F52">
+        <v>122.413333333333</v>
+      </c>
+      <c r="G52">
+        <v>127.69999999999973</v>
+      </c>
+      <c r="J52">
+        <v>166.63333333333281</v>
+      </c>
+      <c r="K52">
+        <v>84.244444444444397</v>
+      </c>
+      <c r="N52">
+        <v>272.5</v>
+      </c>
+      <c r="O52">
+        <v>272.5</v>
       </c>
       <c r="R52">
-        <v>270.48452380952324</v>
+        <v>272.5</v>
       </c>
       <c r="S52">
-        <v>269.4249999999995</v>
+        <v>271.43333333333305</v>
       </c>
     </row>
     <row r="53" spans="3:19">
@@ -5634,29 +5634,29 @@
       <c r="D53" s="1">
         <v>130.4833333</v>
       </c>
-      <c r="F53" s="1">
-        <v>137.38666670000001</v>
-      </c>
-      <c r="G53" s="1">
-        <v>117.39333329999999</v>
-      </c>
-      <c r="J53" s="1">
-        <v>200.2821429</v>
-      </c>
-      <c r="K53" s="1">
-        <v>55.408333329999998</v>
-      </c>
-      <c r="N53" s="1">
-        <v>269.07777779999998</v>
-      </c>
-      <c r="O53" s="1">
-        <v>267.73703699999999</v>
+      <c r="F53">
+        <v>124.89333333333298</v>
+      </c>
+      <c r="G53">
+        <v>130.34666666666632</v>
+      </c>
+      <c r="J53">
+        <v>168.13333333333301</v>
+      </c>
+      <c r="K53">
+        <v>87.688888888888812</v>
+      </c>
+      <c r="N53">
+        <v>270</v>
+      </c>
+      <c r="O53">
+        <v>270</v>
       </c>
       <c r="R53">
-        <v>268.35238095238049</v>
+        <v>270</v>
       </c>
       <c r="S53">
-        <v>268.63333333333287</v>
+        <v>269.4444444444444</v>
       </c>
     </row>
     <row r="54" spans="3:19">
@@ -5666,29 +5666,29 @@
       <c r="D54" s="1">
         <v>133.07166670000001</v>
       </c>
-      <c r="F54" s="1">
-        <v>139.4566667</v>
-      </c>
-      <c r="G54" s="1">
-        <v>120.41</v>
-      </c>
-      <c r="J54" s="1">
-        <v>202.26785709999999</v>
-      </c>
-      <c r="K54" s="1">
-        <v>58.363888889999998</v>
-      </c>
-      <c r="N54" s="1">
-        <v>267.14074069999998</v>
-      </c>
-      <c r="O54" s="1">
-        <v>265.81481480000002</v>
+      <c r="F54">
+        <v>127.06666666666629</v>
+      </c>
+      <c r="G54">
+        <v>133.13333333333281</v>
+      </c>
+      <c r="J54">
+        <v>170.08571428571378</v>
+      </c>
+      <c r="K54">
+        <v>90.899999999999807</v>
+      </c>
+      <c r="N54">
+        <v>267.5</v>
+      </c>
+      <c r="O54">
+        <v>267.5</v>
       </c>
       <c r="R54">
-        <v>266.06666666666621</v>
+        <v>267.5</v>
       </c>
       <c r="S54">
-        <v>267.31111111111079</v>
+        <v>267.21111111111111</v>
       </c>
     </row>
     <row r="55" spans="3:19">
@@ -5698,29 +5698,29 @@
       <c r="D55" s="1">
         <v>135.49666669999999</v>
       </c>
-      <c r="F55" s="1">
-        <v>141.25666670000001</v>
-      </c>
-      <c r="G55" s="1">
-        <v>123.79</v>
-      </c>
-      <c r="J55" s="1">
-        <v>203.90119050000001</v>
-      </c>
-      <c r="K55" s="1">
-        <v>61.341666670000002</v>
-      </c>
-      <c r="N55" s="1">
-        <v>265.12592590000003</v>
-      </c>
-      <c r="O55" s="1">
-        <v>263.72592589999999</v>
+      <c r="F55">
+        <v>129.8799999999996</v>
+      </c>
+      <c r="G55">
+        <v>135.22666666666629</v>
+      </c>
+      <c r="J55">
+        <v>170.67619047619013</v>
+      </c>
+      <c r="K55">
+        <v>95.266666666666595</v>
+      </c>
+      <c r="N55">
+        <v>265</v>
+      </c>
+      <c r="O55">
+        <v>265</v>
       </c>
       <c r="R55">
-        <v>263.81547619047581</v>
+        <v>265</v>
       </c>
       <c r="S55">
-        <v>265.65277777777726</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="56" spans="3:19">
@@ -5730,29 +5730,29 @@
       <c r="D56" s="1">
         <v>138.21666669999999</v>
       </c>
-      <c r="F56" s="1">
-        <v>143.0083333</v>
-      </c>
-      <c r="G56" s="1">
-        <v>126.9916667</v>
-      </c>
-      <c r="J56" s="1">
-        <v>205.61071430000001</v>
-      </c>
-      <c r="K56" s="1">
-        <v>64.441666670000004</v>
-      </c>
-      <c r="N56" s="1">
-        <v>262.70925929999999</v>
-      </c>
-      <c r="O56" s="1">
-        <v>261.62407409999997</v>
+      <c r="F56">
+        <v>132.2999999999997</v>
+      </c>
+      <c r="G56">
+        <v>137.77999999999983</v>
+      </c>
+      <c r="J56">
+        <v>172.81428571428518</v>
+      </c>
+      <c r="K56">
+        <v>97.966666666666441</v>
+      </c>
+      <c r="N56">
+        <v>262.5</v>
+      </c>
+      <c r="O56">
+        <v>262.5</v>
       </c>
       <c r="R56">
-        <v>261.31309523809477</v>
+        <v>262.5</v>
       </c>
       <c r="S56">
-        <v>263.780555555555</v>
+        <v>262.3</v>
       </c>
     </row>
     <row r="57" spans="3:19">
@@ -5762,29 +5762,29 @@
       <c r="D57" s="1">
         <v>140.81666670000001</v>
       </c>
-      <c r="F57" s="1">
-        <v>144.81333330000001</v>
-      </c>
-      <c r="G57" s="1">
-        <v>130.04</v>
-      </c>
-      <c r="J57" s="1">
-        <v>207.95833329999999</v>
-      </c>
-      <c r="K57" s="1">
-        <v>67.330555559999993</v>
-      </c>
-      <c r="N57" s="1">
-        <v>260.2148148</v>
-      </c>
-      <c r="O57" s="1">
-        <v>259.4296296</v>
+      <c r="F57">
+        <v>134.31333333333299</v>
+      </c>
+      <c r="G57">
+        <v>140.75999999999979</v>
+      </c>
+      <c r="J57">
+        <v>174.2666666666662</v>
+      </c>
+      <c r="K57">
+        <v>101.68888888888866</v>
+      </c>
+      <c r="N57">
+        <v>260</v>
+      </c>
+      <c r="O57">
+        <v>260</v>
       </c>
       <c r="R57">
-        <v>258.95833333333292</v>
+        <v>260</v>
       </c>
       <c r="S57">
-        <v>261.38611111111089</v>
+        <v>259.8</v>
       </c>
     </row>
     <row r="58" spans="3:19">
@@ -5794,29 +5794,29 @@
       <c r="D58" s="1">
         <v>143.22</v>
       </c>
-      <c r="F58" s="1">
-        <v>146.82499999999999</v>
-      </c>
-      <c r="G58" s="1">
-        <v>133.26166670000001</v>
-      </c>
-      <c r="J58" s="1">
-        <v>211.03333330000001</v>
-      </c>
-      <c r="K58" s="1">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="N58" s="1">
-        <v>257.92592589999998</v>
-      </c>
-      <c r="O58" s="1">
-        <v>256.8222222</v>
+      <c r="F58">
+        <v>137.31333333333288</v>
+      </c>
+      <c r="G58">
+        <v>142.76666666666631</v>
+      </c>
+      <c r="J58">
+        <v>176.28095238095179</v>
+      </c>
+      <c r="K58">
+        <v>104.61111111111074</v>
+      </c>
+      <c r="N58">
+        <v>257.5</v>
+      </c>
+      <c r="O58">
+        <v>257.5</v>
       </c>
       <c r="R58">
-        <v>256.49999999999943</v>
+        <v>257.5</v>
       </c>
       <c r="S58">
-        <v>258.89999999999947</v>
+        <v>257.3</v>
       </c>
     </row>
     <row r="59" spans="3:19">
@@ -5826,29 +5826,29 @@
       <c r="D59" s="1">
         <v>145.565</v>
       </c>
-      <c r="F59" s="1">
-        <v>149.08666669999999</v>
-      </c>
-      <c r="G59" s="1">
-        <v>135.8266667</v>
-      </c>
-      <c r="J59" s="1">
-        <v>213.14285709999999</v>
-      </c>
-      <c r="K59" s="1">
-        <v>72.955555559999993</v>
-      </c>
-      <c r="N59" s="1">
-        <v>255.55555559999999</v>
-      </c>
-      <c r="O59" s="1">
-        <v>254.29629629999999</v>
+      <c r="F59">
+        <v>139.833333333333</v>
+      </c>
+      <c r="G59">
+        <v>145.25333333333299</v>
+      </c>
+      <c r="J59">
+        <v>177.723809523809</v>
+      </c>
+      <c r="K59">
+        <v>108.19999999999966</v>
+      </c>
+      <c r="N59">
+        <v>255</v>
+      </c>
+      <c r="O59">
+        <v>255</v>
       </c>
       <c r="R59">
-        <v>254.09404761904699</v>
+        <v>255</v>
       </c>
       <c r="S59">
-        <v>256.58055555555512</v>
+        <v>254.8</v>
       </c>
     </row>
     <row r="60" spans="3:19">
@@ -5858,29 +5858,29 @@
       <c r="D60" s="1">
         <v>147.83666669999999</v>
       </c>
-      <c r="F60" s="1">
-        <v>151.38999999999999</v>
-      </c>
-      <c r="G60" s="1">
-        <v>138.66333330000001</v>
-      </c>
-      <c r="J60" s="1">
-        <v>215.52142860000001</v>
-      </c>
-      <c r="K60" s="1">
-        <v>75.305555560000002</v>
-      </c>
-      <c r="N60" s="1">
-        <v>252.9814815</v>
-      </c>
-      <c r="O60" s="1">
-        <v>251.90740740000001</v>
+      <c r="F60">
+        <v>143.49333333333291</v>
+      </c>
+      <c r="G60">
+        <v>146.7933333333329</v>
+      </c>
+      <c r="J60">
+        <v>178.49523809523774</v>
+      </c>
+      <c r="K60">
+        <v>112.39999999999949</v>
+      </c>
+      <c r="N60">
+        <v>252.5</v>
+      </c>
+      <c r="O60">
+        <v>252.5</v>
       </c>
       <c r="R60">
-        <v>251.47619047619</v>
+        <v>252.5</v>
       </c>
       <c r="S60">
-        <v>254.41111111111067</v>
+        <v>252.3</v>
       </c>
     </row>
     <row r="61" spans="3:19">
@@ -5890,29 +5890,29 @@
       <c r="D61" s="1">
         <v>150.18666669999999</v>
       </c>
-      <c r="F61" s="1">
-        <v>154.1416667</v>
-      </c>
-      <c r="G61" s="1">
-        <v>141.4783333</v>
-      </c>
-      <c r="J61" s="1">
-        <v>218.327381</v>
-      </c>
-      <c r="K61" s="1">
-        <v>77.424999999999997</v>
-      </c>
-      <c r="N61" s="1">
-        <v>250.48888890000001</v>
-      </c>
-      <c r="O61" s="1">
-        <v>249.44444440000001</v>
+      <c r="F61">
+        <v>147.3866666666662</v>
+      </c>
+      <c r="G61">
+        <v>147.94666666666632</v>
+      </c>
+      <c r="J61">
+        <v>179.13333333333281</v>
+      </c>
+      <c r="K61">
+        <v>116.94444444444409</v>
+      </c>
+      <c r="N61">
+        <v>250</v>
+      </c>
+      <c r="O61">
+        <v>250</v>
       </c>
       <c r="R61">
-        <v>249.1428571428566</v>
+        <v>250</v>
       </c>
       <c r="S61">
-        <v>251.7999999999995</v>
+        <v>249.85555555555547</v>
       </c>
     </row>
     <row r="62" spans="3:19">
@@ -5922,29 +5922,29 @@
       <c r="D62" s="1">
         <v>152.90166669999999</v>
       </c>
-      <c r="F62" s="1">
-        <v>156.6116667</v>
-      </c>
-      <c r="G62" s="1">
-        <v>144.12166669999999</v>
-      </c>
-      <c r="J62" s="1">
-        <v>220.29285709999999</v>
-      </c>
-      <c r="K62" s="1">
-        <v>80.42777778</v>
-      </c>
-      <c r="N62" s="1">
-        <v>247.93518520000001</v>
-      </c>
-      <c r="O62" s="1">
-        <v>247.06481479999999</v>
+      <c r="F62">
+        <v>149.72666666666629</v>
+      </c>
+      <c r="G62">
+        <v>150.5866666666663</v>
+      </c>
+      <c r="J62">
+        <v>181.09523809523759</v>
+      </c>
+      <c r="K62">
+        <v>120.0777777777774</v>
+      </c>
+      <c r="N62">
+        <v>247.5</v>
+      </c>
+      <c r="O62">
+        <v>247.5</v>
       </c>
       <c r="R62">
-        <v>246.60119047618991</v>
+        <v>247.5</v>
       </c>
       <c r="S62">
-        <v>249.54166666666623</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="63" spans="3:19">
@@ -5954,29 +5954,29 @@
       <c r="D63" s="1">
         <v>155.435</v>
       </c>
-      <c r="F63" s="1">
-        <v>159.2333333</v>
-      </c>
-      <c r="G63" s="1">
-        <v>146.72</v>
-      </c>
-      <c r="J63" s="1">
-        <v>221.89047619999999</v>
-      </c>
-      <c r="K63" s="1">
-        <v>84.055555560000002</v>
-      </c>
-      <c r="N63" s="1">
-        <v>245.212963</v>
-      </c>
-      <c r="O63" s="1">
-        <v>244.787037</v>
+      <c r="F63">
+        <v>151.56666666666632</v>
+      </c>
+      <c r="G63">
+        <v>153.88666666666637</v>
+      </c>
+      <c r="J63">
+        <v>183.20952380952332</v>
+      </c>
+      <c r="K63">
+        <v>123.03333333333289</v>
+      </c>
+      <c r="N63">
+        <v>245</v>
+      </c>
+      <c r="O63">
+        <v>245</v>
       </c>
       <c r="R63">
-        <v>244.07142857142813</v>
+        <v>245</v>
       </c>
       <c r="S63">
-        <v>247.11111111111057</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="3:19">
@@ -5986,29 +5986,29 @@
       <c r="D64" s="1">
         <v>157.77500000000001</v>
       </c>
-      <c r="F64" s="1">
-        <v>161.41999999999999</v>
-      </c>
-      <c r="G64" s="1">
-        <v>149.72</v>
-      </c>
-      <c r="J64" s="1">
-        <v>223.85357139999999</v>
-      </c>
-      <c r="K64" s="1">
-        <v>86.719444440000004</v>
-      </c>
-      <c r="N64" s="1">
-        <v>242.712963</v>
-      </c>
-      <c r="O64" s="1">
-        <v>242.287037</v>
+      <c r="F64">
+        <v>153.95999999999978</v>
+      </c>
+      <c r="G64">
+        <v>156.77999999999969</v>
+      </c>
+      <c r="J64">
+        <v>186.03809523809468</v>
+      </c>
+      <c r="K64">
+        <v>125.2222222222219</v>
+      </c>
+      <c r="N64">
+        <v>242.5</v>
+      </c>
+      <c r="O64">
+        <v>242.5</v>
       </c>
       <c r="R64">
-        <v>241.5952380952377</v>
+        <v>242.5</v>
       </c>
       <c r="S64">
-        <v>244.6111111111108</v>
+        <v>242.5</v>
       </c>
     </row>
     <row r="65" spans="3:19">
@@ -6018,29 +6018,29 @@
       <c r="D65" s="1">
         <v>160.23166670000001</v>
       </c>
-      <c r="F65" s="1">
-        <v>163.785</v>
-      </c>
-      <c r="G65" s="1">
-        <v>152.5816667</v>
-      </c>
-      <c r="J65" s="1">
-        <v>226.07857139999999</v>
-      </c>
-      <c r="K65" s="1">
-        <v>89.905555559999996</v>
-      </c>
-      <c r="N65" s="1">
-        <v>240.17592590000001</v>
-      </c>
-      <c r="O65" s="1">
-        <v>239.82407409999999</v>
+      <c r="F65">
+        <v>156.52666666666642</v>
+      </c>
+      <c r="G65">
+        <v>159.19333333333299</v>
+      </c>
+      <c r="J65">
+        <v>186.49047619047582</v>
+      </c>
+      <c r="K65">
+        <v>129.97777777777722</v>
+      </c>
+      <c r="N65">
+        <v>240</v>
+      </c>
+      <c r="O65">
+        <v>240</v>
       </c>
       <c r="R65">
-        <v>239.1309523809519</v>
+        <v>240</v>
       </c>
       <c r="S65">
-        <v>242.0277777777772</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="3:19">
@@ -6050,29 +6050,29 @@
       <c r="D66" s="1">
         <v>162.69999999999999</v>
       </c>
-      <c r="F66" s="1">
-        <v>166.17500000000001</v>
-      </c>
-      <c r="G66" s="1">
-        <v>155.4183333</v>
-      </c>
-      <c r="J66" s="1">
-        <v>227.62619050000001</v>
-      </c>
-      <c r="K66" s="1">
-        <v>93.594444440000004</v>
-      </c>
-      <c r="N66" s="1">
-        <v>237.69444440000001</v>
-      </c>
-      <c r="O66" s="1">
-        <v>237.30555559999999</v>
+      <c r="F66">
+        <v>158.43999999999969</v>
+      </c>
+      <c r="G66">
+        <v>162.32666666666637</v>
+      </c>
+      <c r="J66">
+        <v>187.7857142857136</v>
+      </c>
+      <c r="K66">
+        <v>133.84444444444401</v>
+      </c>
+      <c r="N66">
+        <v>237.5</v>
+      </c>
+      <c r="O66">
+        <v>237.5</v>
       </c>
       <c r="R66">
-        <v>236.68452380952331</v>
+        <v>237.5</v>
       </c>
       <c r="S66">
-        <v>239.4027777777772</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="67" spans="3:19">
@@ -6082,29 +6082,29 @@
       <c r="D67" s="1">
         <v>165.0083333</v>
       </c>
-      <c r="F67" s="1">
-        <v>168.5483333</v>
-      </c>
-      <c r="G67" s="1">
-        <v>158.64500000000001</v>
-      </c>
-      <c r="J67" s="1">
-        <v>228.69642859999999</v>
-      </c>
-      <c r="K67" s="1">
-        <v>97.641666670000006</v>
-      </c>
-      <c r="N67" s="1">
-        <v>235.42592590000001</v>
-      </c>
-      <c r="O67" s="1">
-        <v>234.57407409999999</v>
+      <c r="F67">
+        <v>161.34666666666629</v>
+      </c>
+      <c r="G67">
+        <v>164.7533333333329</v>
+      </c>
+      <c r="J67">
+        <v>189.74761904761823</v>
+      </c>
+      <c r="K67">
+        <v>137.0777777777773</v>
+      </c>
+      <c r="N67">
+        <v>235</v>
+      </c>
+      <c r="O67">
+        <v>235</v>
       </c>
       <c r="R67">
-        <v>234.11904761904719</v>
+        <v>235</v>
       </c>
       <c r="S67">
-        <v>237.05555555555497</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="3:19">
@@ -6114,29 +6114,29 @@
       <c r="D68" s="1">
         <v>167.44</v>
       </c>
-      <c r="F68" s="1">
-        <v>171.10166670000001</v>
-      </c>
-      <c r="G68" s="1">
-        <v>161.54499999999999</v>
-      </c>
-      <c r="J68" s="1">
-        <v>228.74880949999999</v>
-      </c>
-      <c r="K68" s="1">
-        <v>103.06388889999999</v>
-      </c>
-      <c r="N68" s="1">
-        <v>232.84259259999999</v>
-      </c>
-      <c r="O68" s="1">
-        <v>232.15740740000001</v>
+      <c r="F68">
+        <v>164.07999999999953</v>
+      </c>
+      <c r="G68">
+        <v>167.00666666666643</v>
+      </c>
+      <c r="J68">
+        <v>190.9047619047615</v>
+      </c>
+      <c r="K68">
+        <v>141.05555555555512</v>
+      </c>
+      <c r="N68">
+        <v>232.5</v>
+      </c>
+      <c r="O68">
+        <v>232.5</v>
       </c>
       <c r="R68">
-        <v>231.67857142857093</v>
+        <v>232.5</v>
       </c>
       <c r="S68">
-        <v>234.41666666666629</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="69" spans="3:19">
@@ -6146,29 +6146,29 @@
       <c r="D69" s="1">
         <v>169.98833329999999</v>
       </c>
-      <c r="F69" s="1">
-        <v>173.3833333</v>
-      </c>
-      <c r="G69" s="1">
-        <v>164.44333330000001</v>
-      </c>
-      <c r="J69" s="1">
-        <v>227.68452379999999</v>
-      </c>
-      <c r="K69" s="1">
-        <v>109.2472222</v>
-      </c>
-      <c r="N69" s="1">
-        <v>230.42592590000001</v>
-      </c>
-      <c r="O69" s="1">
-        <v>229.57407409999999</v>
+      <c r="F69">
+        <v>167.23333333333304</v>
+      </c>
+      <c r="G69">
+        <v>169.09999999999957</v>
+      </c>
+      <c r="J69">
+        <v>192.42380952380921</v>
+      </c>
+      <c r="K69">
+        <v>144.544444444444</v>
+      </c>
+      <c r="N69">
+        <v>230</v>
+      </c>
+      <c r="O69">
+        <v>230</v>
       </c>
       <c r="R69">
-        <v>229.07142857142816</v>
+        <v>230</v>
       </c>
       <c r="S69">
-        <v>232.16666666666634</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="3:19">
@@ -6178,29 +6178,29 @@
       <c r="D70" s="1">
         <v>172.90166669999999</v>
       </c>
-      <c r="F70" s="1">
-        <v>175.61</v>
-      </c>
-      <c r="G70" s="1">
-        <v>167.25666670000001</v>
-      </c>
-      <c r="J70" s="1">
-        <v>225.8309524</v>
-      </c>
-      <c r="K70" s="1">
-        <v>115.5944444</v>
-      </c>
-      <c r="N70" s="1">
-        <v>227.75</v>
-      </c>
-      <c r="O70" s="1">
-        <v>227.25</v>
+      <c r="F70">
+        <v>170.15333333333291</v>
+      </c>
+      <c r="G70">
+        <v>171.14666666666631</v>
+      </c>
+      <c r="J70">
+        <v>193.19047619047581</v>
+      </c>
+      <c r="K70">
+        <v>148.99999999999949</v>
+      </c>
+      <c r="N70">
+        <v>227.5</v>
+      </c>
+      <c r="O70">
+        <v>227.5</v>
       </c>
       <c r="R70">
-        <v>226.49404761904697</v>
+        <v>227.5</v>
       </c>
       <c r="S70">
-        <v>229.84722222222166</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="71" spans="3:19">
@@ -6210,29 +6210,29 @@
       <c r="D71" s="1">
         <v>175.34</v>
       </c>
-      <c r="F71" s="1">
-        <v>177.64833329999999</v>
-      </c>
-      <c r="G71" s="1">
-        <v>170.29166670000001</v>
-      </c>
-      <c r="J71" s="1">
-        <v>223.82380950000001</v>
-      </c>
-      <c r="K71" s="1">
-        <v>122.24444440000001</v>
-      </c>
-      <c r="N71" s="1">
-        <v>225.2407407</v>
-      </c>
-      <c r="O71" s="1">
-        <v>224.7592593</v>
+      <c r="F71">
+        <v>172.63333333333321</v>
+      </c>
+      <c r="G71">
+        <v>173.85333333333301</v>
+      </c>
+      <c r="J71">
+        <v>192.59523809523779</v>
+      </c>
+      <c r="K71">
+        <v>154.5999999999996</v>
+      </c>
+      <c r="N71">
+        <v>225</v>
+      </c>
+      <c r="O71">
+        <v>225</v>
       </c>
       <c r="R71">
-        <v>223.91071428571382</v>
+        <v>225</v>
       </c>
       <c r="S71">
-        <v>227.54166666666629</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="3:19">
@@ -6242,29 +6242,29 @@
       <c r="D72" s="1">
         <v>177.89500000000001</v>
       </c>
-      <c r="F72" s="1">
-        <v>180.22</v>
-      </c>
-      <c r="G72" s="1">
-        <v>173.2333333</v>
-      </c>
-      <c r="J72" s="1">
-        <v>221.57142859999999</v>
-      </c>
-      <c r="K72" s="1">
-        <v>128.8222222</v>
-      </c>
-      <c r="N72" s="1">
-        <v>222.62037040000001</v>
-      </c>
-      <c r="O72" s="1">
-        <v>222.37962959999999</v>
+      <c r="F72">
+        <v>176.3199999999996</v>
+      </c>
+      <c r="G72">
+        <v>175.37999999999963</v>
+      </c>
+      <c r="J72">
+        <v>193.59999999999951</v>
+      </c>
+      <c r="K72">
+        <v>158.78888888888849</v>
+      </c>
+      <c r="N72">
+        <v>222.5</v>
+      </c>
+      <c r="O72">
+        <v>222.5</v>
       </c>
       <c r="R72">
-        <v>221.39285714285671</v>
+        <v>222.5</v>
       </c>
       <c r="S72">
-        <v>225.0833333333328</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="73" spans="3:19">
@@ -6274,29 +6274,29 @@
       <c r="D73" s="1">
         <v>180.07</v>
       </c>
-      <c r="F73" s="1">
-        <v>182.59666669999999</v>
-      </c>
-      <c r="G73" s="1">
-        <v>175.9566667</v>
-      </c>
-      <c r="J73" s="1">
-        <v>219.3666667</v>
-      </c>
-      <c r="K73" s="1">
-        <v>136.71111110000001</v>
-      </c>
-      <c r="N73" s="1">
-        <v>220.14814809999999</v>
-      </c>
-      <c r="O73" s="1">
-        <v>219.85185190000001</v>
+      <c r="F73">
+        <v>178.91333333333301</v>
+      </c>
+      <c r="G73">
+        <v>178.0266666666663</v>
+      </c>
+      <c r="J73">
+        <v>193.9142857142854</v>
+      </c>
+      <c r="K73">
+        <v>163.57777777777727</v>
+      </c>
+      <c r="N73">
+        <v>220</v>
+      </c>
+      <c r="O73">
+        <v>220</v>
       </c>
       <c r="R73">
-        <v>218.9285714285711</v>
+        <v>220</v>
       </c>
       <c r="S73">
-        <v>222.49999999999963</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="3:19">
@@ -6306,29 +6306,29 @@
       <c r="D74" s="1">
         <v>182.60666670000001</v>
       </c>
-      <c r="F74" s="1">
-        <v>184.77500000000001</v>
-      </c>
-      <c r="G74" s="1">
-        <v>178.785</v>
-      </c>
-      <c r="J74" s="1">
-        <v>217.02142860000001</v>
-      </c>
-      <c r="K74" s="1">
-        <v>144.85</v>
-      </c>
-      <c r="N74" s="1">
-        <v>217.87037040000001</v>
-      </c>
-      <c r="O74" s="1">
-        <v>217.12962959999999</v>
+      <c r="F74">
+        <v>183.23999999999978</v>
+      </c>
+      <c r="G74">
+        <v>178.9666666666663</v>
+      </c>
+      <c r="J74">
+        <v>194.60952380952318</v>
+      </c>
+      <c r="K74">
+        <v>167.9666666666663</v>
+      </c>
+      <c r="N74">
+        <v>217.5</v>
+      </c>
+      <c r="O74">
+        <v>217.5</v>
       </c>
       <c r="R74">
-        <v>216.55357142857102</v>
+        <v>217.5</v>
       </c>
       <c r="S74">
-        <v>219.70833333333294</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="75" spans="3:19">
@@ -6338,29 +6338,29 @@
       <c r="D75" s="1">
         <v>185.14500000000001</v>
       </c>
-      <c r="F75" s="1">
-        <v>187.19</v>
-      </c>
-      <c r="G75" s="1">
-        <v>181.97</v>
-      </c>
-      <c r="J75" s="1">
-        <v>214.61547619999999</v>
-      </c>
-      <c r="K75" s="1">
-        <v>152.375</v>
-      </c>
-      <c r="N75" s="1">
-        <v>215.29629629999999</v>
-      </c>
-      <c r="O75" s="1">
-        <v>214.70370370000001</v>
+      <c r="F75">
+        <v>185.53999999999968</v>
+      </c>
+      <c r="G75">
+        <v>181.91333333333301</v>
+      </c>
+      <c r="J75">
+        <v>196.7095238095232</v>
+      </c>
+      <c r="K75">
+        <v>171.15555555555508</v>
+      </c>
+      <c r="N75">
+        <v>215</v>
+      </c>
+      <c r="O75">
+        <v>215</v>
       </c>
       <c r="R75">
-        <v>214.05357142857102</v>
+        <v>215</v>
       </c>
       <c r="S75">
-        <v>217.20833333333289</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="3:19">
@@ -6370,29 +6370,29 @@
       <c r="D76" s="1">
         <v>188.0766667</v>
       </c>
-      <c r="F76" s="1">
-        <v>189.5766667</v>
-      </c>
-      <c r="G76" s="1">
-        <v>184.80333329999999</v>
-      </c>
-      <c r="J76" s="1">
-        <v>212.1083333</v>
-      </c>
-      <c r="K76" s="1">
-        <v>159.79166670000001</v>
-      </c>
-      <c r="N76" s="1">
-        <v>213.0185185</v>
-      </c>
-      <c r="O76" s="1">
-        <v>211.9814815</v>
+      <c r="F76">
+        <v>188.11999999999972</v>
+      </c>
+      <c r="G76">
+        <v>184.61999999999966</v>
+      </c>
+      <c r="J76">
+        <v>198.7904761904758</v>
+      </c>
+      <c r="K76">
+        <v>174.53333333333299</v>
+      </c>
+      <c r="N76">
+        <v>212.5</v>
+      </c>
+      <c r="O76">
+        <v>212.5</v>
       </c>
       <c r="R76">
-        <v>211.5476190476185</v>
+        <v>212.5</v>
       </c>
       <c r="S76">
-        <v>214.72222222222189</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="77" spans="3:19">
@@ -6402,29 +6402,29 @@
       <c r="D77" s="1">
         <v>190.5783333</v>
       </c>
-      <c r="F77" s="1">
-        <v>191.8283333</v>
-      </c>
-      <c r="G77" s="1">
-        <v>188.09833330000001</v>
-      </c>
-      <c r="J77" s="1">
-        <v>209.6369048</v>
-      </c>
-      <c r="K77" s="1">
-        <v>167.45833329999999</v>
-      </c>
-      <c r="N77" s="1">
-        <v>210.5092593</v>
-      </c>
-      <c r="O77" s="1">
-        <v>209.4907407</v>
+      <c r="F77">
+        <v>189.92666666666648</v>
+      </c>
+      <c r="G77">
+        <v>188.09999999999971</v>
+      </c>
+      <c r="J77">
+        <v>201.09523809523739</v>
+      </c>
+      <c r="K77">
+        <v>177.65555555555511</v>
+      </c>
+      <c r="N77">
+        <v>210</v>
+      </c>
+      <c r="O77">
+        <v>210</v>
       </c>
       <c r="R77">
-        <v>209.07738095238068</v>
+        <v>210</v>
       </c>
       <c r="S77">
-        <v>212.15277777777743</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="3:19">
@@ -6434,29 +6434,29 @@
       <c r="D78" s="1">
         <v>192.84666669999999</v>
       </c>
-      <c r="F78" s="1">
-        <v>193.85499999999999</v>
-      </c>
-      <c r="G78" s="1">
-        <v>191.2583333</v>
-      </c>
-      <c r="J78" s="1">
-        <v>207.18452379999999</v>
-      </c>
-      <c r="K78" s="1">
-        <v>175.29166670000001</v>
-      </c>
-      <c r="N78" s="1">
-        <v>208</v>
-      </c>
-      <c r="O78" s="1">
-        <v>207</v>
+      <c r="F78">
+        <v>191.72666666666629</v>
+      </c>
+      <c r="G78">
+        <v>191.59333333333322</v>
+      </c>
+      <c r="J78">
+        <v>201.79523809523761</v>
+      </c>
+      <c r="K78">
+        <v>182.37777777777723</v>
+      </c>
+      <c r="N78">
+        <v>207.5</v>
+      </c>
+      <c r="O78">
+        <v>207.5</v>
       </c>
       <c r="R78">
-        <v>206.77380952380909</v>
+        <v>207.5</v>
       </c>
       <c r="S78">
-        <v>209.19444444444417</v>
+        <v>207.5</v>
       </c>
     </row>
     <row r="79" spans="3:19">
@@ -6466,29 +6466,29 @@
       <c r="D79" s="1">
         <v>195.6166667</v>
       </c>
-      <c r="F79" s="1">
-        <v>195.80666669999999</v>
-      </c>
-      <c r="G79" s="1">
-        <v>194.15333330000001</v>
-      </c>
-      <c r="J79" s="1">
-        <v>204.83333329999999</v>
-      </c>
-      <c r="K79" s="1">
-        <v>183.83333329999999</v>
-      </c>
-      <c r="N79" s="1">
-        <v>205.45370370000001</v>
-      </c>
-      <c r="O79" s="1">
-        <v>204.54629629999999</v>
+      <c r="F79">
+        <v>192.9666666666663</v>
+      </c>
+      <c r="G79">
+        <v>195.64666666666642</v>
+      </c>
+      <c r="J79">
+        <v>202.28571428571379</v>
+      </c>
+      <c r="K79">
+        <v>187.23333333333298</v>
+      </c>
+      <c r="N79">
+        <v>205</v>
+      </c>
+      <c r="O79">
+        <v>205</v>
       </c>
       <c r="R79">
-        <v>204.39285714285651</v>
+        <v>205</v>
       </c>
       <c r="S79">
-        <v>206.41666666666606</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="3:19">
@@ -6498,29 +6498,29 @@
       <c r="D80" s="1">
         <v>197.67500000000001</v>
       </c>
-      <c r="F80" s="1">
-        <v>197.59166669999999</v>
-      </c>
-      <c r="G80" s="1">
-        <v>197.48833329999999</v>
-      </c>
-      <c r="J80" s="1">
-        <v>202.422619</v>
-      </c>
-      <c r="K80" s="1">
-        <v>191.95833329999999</v>
-      </c>
-      <c r="N80" s="1">
-        <v>202.89814809999999</v>
-      </c>
-      <c r="O80" s="1">
-        <v>202.10185190000001</v>
+      <c r="F80">
+        <v>196.56666666666649</v>
+      </c>
+      <c r="G80">
+        <v>197.79999999999961</v>
+      </c>
+      <c r="J80">
+        <v>201.6666666666664</v>
+      </c>
+      <c r="K80">
+        <v>193.1333333333331</v>
+      </c>
+      <c r="N80">
+        <v>202.5</v>
+      </c>
+      <c r="O80">
+        <v>202.5</v>
       </c>
       <c r="R80">
-        <v>202.29761904761861</v>
+        <v>202.5</v>
       </c>
       <c r="S80">
-        <v>202.97222222222177</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="81" spans="3:19">
@@ -6530,22 +6530,22 @@
       <c r="D81" s="1">
         <v>200</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81">
         <v>200</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81">
         <v>200</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81">
         <v>200</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K81">
         <v>200</v>
       </c>
-      <c r="N81" s="1">
+      <c r="N81">
         <v>200</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81">
         <v>200</v>
       </c>
       <c r="R81">

--- a/Experiments/Part1-Uniform-MajorMinor/Part2-PeerPop.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Part2-PeerPop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,22 @@
     <t>Taste 0 (PeerPop_Uniform)</t>
   </si>
   <si>
-    <t>Taste 1(PeerPop_MajorMinor)</t>
+    <t>Taste 1(PeerPop_Major)</t>
   </si>
   <si>
-    <t>Taste 0 (PeerPop-MajorMinor)</t>
+    <t>Taste 0 (PeerPop-Minor)</t>
   </si>
   <si>
-    <t>Taste 1 (PeerLikeSim_uniform)</t>
+    <t>Taste 1 (peer-follow-sim-uniform)</t>
   </si>
   <si>
-    <t>Taste 0 (PeerLikeSim_Unifrom)</t>
+    <t>Taste 0 (peer-follow-sim-uniform)</t>
   </si>
   <si>
-    <t>Taste 1(PeerLikeSim_MajorMinor)</t>
+    <t>Taste 0 (peer-follow-sim-Minor)</t>
   </si>
   <si>
-    <t>Taste 0 (PeerLikeSim_MajorMinor)</t>
+    <t>Taste 1 (peer-follow-sim-Major)</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1204,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1 (PeerLikeSim_uniform)</c:v>
+                  <c:v>Taste 1 (peer-follow-sim-uniform)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1219,154 +1219,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>2.386666666666663</c:v>
+                  <c:v>2.25333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.45333333333333</c:v>
+                  <c:v>5.826666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.17999999999997</c:v>
+                  <c:v>11.88666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.3733333333333</c:v>
+                  <c:v>19.1533333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.75333333333329</c:v>
+                  <c:v>26.57999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.17333333333329</c:v>
+                  <c:v>34.05333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.6533333333333</c:v>
+                  <c:v>41.55333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.1533333333333</c:v>
+                  <c:v>49.05333333333331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.6533333333333</c:v>
+                  <c:v>56.55333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.15333333333329</c:v>
+                  <c:v>64.05333333333331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.65333333333329</c:v>
+                  <c:v>71.55333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81.15333333333329</c:v>
+                  <c:v>79.05333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88.65333333333329</c:v>
+                  <c:v>86.55333333333331</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96.15333333333329</c:v>
+                  <c:v>94.05333333333331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103.6533333333329</c:v>
+                  <c:v>101.5533333333331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111.1533333333329</c:v>
+                  <c:v>109.0533333333331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>118.6466666666663</c:v>
+                  <c:v>116.5533333333331</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>126.0866666666663</c:v>
+                  <c:v>124.0533333333331</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133.4266666666663</c:v>
+                  <c:v>131.5533333333331</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>140.6733333333331</c:v>
+                  <c:v>139.0199999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>147.8266666666663</c:v>
+                  <c:v>146.4599999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>154.8466666666663</c:v>
+                  <c:v>153.8399999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>161.6266666666663</c:v>
+                  <c:v>161.0533333333331</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>168.3866666666663</c:v>
+                  <c:v>168.113333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>175.2333333333329</c:v>
+                  <c:v>175.0399999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>181.8466666666664</c:v>
+                  <c:v>181.8733333333329</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>188.5466666666663</c:v>
+                  <c:v>188.453333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>195.333333333333</c:v>
+                  <c:v>195.0999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>202.053333333333</c:v>
+                  <c:v>201.6733333333331</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>208.5866666666664</c:v>
+                  <c:v>208.313333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>215.2066666666664</c:v>
+                  <c:v>214.7199999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>221.3599999999995</c:v>
+                  <c:v>220.7599999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>227.8266666666664</c:v>
+                  <c:v>227.2333333333329</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>234.3066666666663</c:v>
+                  <c:v>233.4466666666663</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>240.3066666666664</c:v>
+                  <c:v>239.6333333333331</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>246.2599999999995</c:v>
+                  <c:v>245.9066666666662</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>251.7799999999997</c:v>
+                  <c:v>251.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>256.8666666666662</c:v>
+                  <c:v>257.5533333333331</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>262.3999999999997</c:v>
+                  <c:v>263.053333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>267.3599999999998</c:v>
+                  <c:v>267.353333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>271.1599999999995</c:v>
+                  <c:v>271.873333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>274.313333333333</c:v>
+                  <c:v>275.8066666666664</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>277.593333333333</c:v>
+                  <c:v>278.813333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>280.1599999999997</c:v>
+                  <c:v>281.2599999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>280.5599999999997</c:v>
+                  <c:v>282.7933333333331</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>280.6599999999996</c:v>
+                  <c:v>282.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>280.2133333333332</c:v>
+                  <c:v>281.4999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>278.6466666666664</c:v>
+                  <c:v>279.7266666666666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>277.0466666666666</c:v>
+                  <c:v>277.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>274.9266666666666</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>272.5</c:v>
@@ -1472,7 +1472,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 0 (PeerLikeSim_Unifrom)</c:v>
+                  <c:v>Taste 0 (peer-follow-sim-uniform)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1487,154 +1487,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>2.606666666666663</c:v>
+                  <c:v>2.579999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.75333333333333</c:v>
+                  <c:v>6.279999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.53999999999997</c:v>
+                  <c:v>12.5733333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.84666666666662</c:v>
+                  <c:v>19.88666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.24666666666663</c:v>
+                  <c:v>27.32666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.74666666666663</c:v>
+                  <c:v>34.82666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.17999999999996</c:v>
+                  <c:v>42.32666666666664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.67999999999997</c:v>
+                  <c:v>49.82666666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.17999999999997</c:v>
+                  <c:v>57.32666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.67999999999998</c:v>
+                  <c:v>64.82666666666664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.17999999999998</c:v>
+                  <c:v>72.32666666666664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81.67999999999998</c:v>
+                  <c:v>79.82666666666664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.17999999999998</c:v>
+                  <c:v>87.32666666666664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96.67999999999998</c:v>
+                  <c:v>94.82666666666664</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104.1799999999997</c:v>
+                  <c:v>102.3266666666664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111.6799999999997</c:v>
+                  <c:v>109.8266666666664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>119.1799999999997</c:v>
+                  <c:v>117.3266666666664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>126.6599999999997</c:v>
+                  <c:v>124.8266666666664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>134.0533333333331</c:v>
+                  <c:v>132.3066666666664</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141.3466666666664</c:v>
+                  <c:v>139.7066666666664</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>148.453333333333</c:v>
+                  <c:v>147.1599999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>155.2999999999996</c:v>
+                  <c:v>154.3733333333328</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>162.1266666666664</c:v>
+                  <c:v>161.4666666666664</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>168.893333333333</c:v>
+                  <c:v>168.3733333333331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>175.7399999999997</c:v>
+                  <c:v>175.153333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>182.6599999999997</c:v>
+                  <c:v>181.773333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>189.6266666666663</c:v>
+                  <c:v>188.5999999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>196.2399999999997</c:v>
+                  <c:v>195.3466666666663</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>202.6866666666663</c:v>
+                  <c:v>202.1199999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>209.4266666666663</c:v>
+                  <c:v>208.5666666666665</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>215.793333333333</c:v>
+                  <c:v>214.7666666666663</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>221.9999999999995</c:v>
+                  <c:v>221.1466666666662</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>228.533333333333</c:v>
+                  <c:v>227.4999999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>234.8999999999998</c:v>
+                  <c:v>233.6266666666663</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>240.6666666666664</c:v>
+                  <c:v>239.8066666666662</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>246.7199999999997</c:v>
+                  <c:v>245.5799999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>252.4399999999995</c:v>
+                  <c:v>251.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>258.1933333333332</c:v>
+                  <c:v>257.1266666666664</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>263.753333333333</c:v>
+                  <c:v>262.6199999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>268.7066666666663</c:v>
+                  <c:v>267.693333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>272.5866666666662</c:v>
+                  <c:v>271.6399999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>276.4466666666662</c:v>
+                  <c:v>275.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>279.5333333333331</c:v>
+                  <c:v>279.273333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>281.4266666666663</c:v>
+                  <c:v>281.1199999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>282.0333333333332</c:v>
+                  <c:v>282.7133333333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>281.9799999999998</c:v>
+                  <c:v>282.7266666666664</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>281.1133333333332</c:v>
+                  <c:v>281.4999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>279.1999999999999</c:v>
+                  <c:v>279.66</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>277.1533333333333</c:v>
+                  <c:v>277.3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>274.9066666666666</c:v>
+                  <c:v>274.8133333333333</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>272.5</c:v>
@@ -1741,11 +1741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121548296"/>
-        <c:axId val="2140895768"/>
+        <c:axId val="2146042328"/>
+        <c:axId val="2131966232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121548296"/>
+        <c:axId val="2146042328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140895768"/>
+        <c:crossAx val="2131966232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1781,7 +1781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140895768"/>
+        <c:axId val="2131966232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121548296"/>
+        <c:crossAx val="2146042328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2398,7 +2398,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1(PeerPop_MajorMinor)</c:v>
+                  <c:v>Taste 1(PeerPop_Major)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2666,7 +2666,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 0 (PeerPop-MajorMinor)</c:v>
+                  <c:v>Taste 0 (PeerPop-Minor)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2934,7 +2934,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1(PeerLikeSim_MajorMinor)</c:v>
+                  <c:v>Taste 1 (peer-follow-sim-Major)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2952,145 +2952,145 @@
                   <c:v>2.44285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.190476190476186</c:v>
+                  <c:v>6.31428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.46666666666664</c:v>
+                  <c:v>13.07619047619042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.91428571428568</c:v>
+                  <c:v>20.53333333333328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.41428571428568</c:v>
+                  <c:v>28.02857142857136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.90952380952378</c:v>
+                  <c:v>35.52857142857136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.40952380952378</c:v>
+                  <c:v>43.02857142857137</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.90952380952378</c:v>
+                  <c:v>50.52857142857137</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.40952380952378</c:v>
+                  <c:v>58.02857142857137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.9095238095238</c:v>
+                  <c:v>65.52857142857138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.40952380952377</c:v>
+                  <c:v>73.02857142857138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.90952380952377</c:v>
+                  <c:v>80.52857142857138</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.4095238095238</c:v>
+                  <c:v>88.02857142857138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.9095238095238</c:v>
+                  <c:v>95.52857142857138</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105.4095238095233</c:v>
+                  <c:v>103.0285714285708</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>112.9095238095233</c:v>
+                  <c:v>110.5285714285708</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120.4095238095233</c:v>
+                  <c:v>118.0285714285708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127.9095238095233</c:v>
+                  <c:v>125.5285714285708</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>135.4095238095233</c:v>
+                  <c:v>133.0285714285708</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>142.8952380952376</c:v>
+                  <c:v>140.5285714285708</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>150.2761904761899</c:v>
+                  <c:v>148.0285714285708</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>157.6285714285708</c:v>
+                  <c:v>155.5285714285708</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>164.9190476190471</c:v>
+                  <c:v>162.9904761904756</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>172.0047619047615</c:v>
+                  <c:v>170.4047619047613</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>178.8999999999997</c:v>
+                  <c:v>177.8476190476185</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185.7904761904757</c:v>
+                  <c:v>184.77619047619</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>192.723809523809</c:v>
+                  <c:v>191.8523809523803</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>199.4666666666662</c:v>
+                  <c:v>198.8904761904757</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>206.0809523809518</c:v>
+                  <c:v>205.7761904761899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>212.8095238095236</c:v>
+                  <c:v>212.5761904761901</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>219.6380952380947</c:v>
+                  <c:v>219.2904761904756</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>226.1095238095232</c:v>
+                  <c:v>225.9333333333327</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>232.5428571428566</c:v>
+                  <c:v>232.3619047619044</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>239.0952380952376</c:v>
+                  <c:v>238.9380952380947</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>245.4619047619042</c:v>
+                  <c:v>245.0666666666663</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>251.5952380952375</c:v>
+                  <c:v>251.2999999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>257.6904761904757</c:v>
+                  <c:v>256.9952380952376</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>263.2857142857137</c:v>
+                  <c:v>262.9095238095232</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>268.2047619047615</c:v>
+                  <c:v>268.4619047619043</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>273.4238095238092</c:v>
+                  <c:v>273.519047619047</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>278.4904761904756</c:v>
+                  <c:v>278.1095238095232</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>282.3095238095234</c:v>
+                  <c:v>281.019047619047</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>285.6761904761901</c:v>
+                  <c:v>284.2285714285709</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>286.3952380952377</c:v>
+                  <c:v>285.2571428571425</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>285.5999999999998</c:v>
+                  <c:v>285.1285714285709</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>283.9285714285712</c:v>
+                  <c:v>284.0666666666665</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>281.795238095238</c:v>
+                  <c:v>282.2952380952379</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>279.9571428571428</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>277.5</c:v>
@@ -3202,7 +3202,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 0 (PeerLikeSim_MajorMinor)</c:v>
+                  <c:v>Taste 0 (peer-follow-sim-Minor)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3220,160 +3220,160 @@
                   <c:v>2.622222222222217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.766666666666663</c:v>
+                  <c:v>5.266666666666661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.66666666666662</c:v>
+                  <c:v>10.07777777777775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.53333333333329</c:v>
+                  <c:v>16.76666666666662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.78888888888886</c:v>
+                  <c:v>24.17777777777773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.14444444444439</c:v>
+                  <c:v>31.67777777777773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.4333333333333</c:v>
+                  <c:v>39.17777777777773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.77777777777773</c:v>
+                  <c:v>46.67777777777773</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.2444444444444</c:v>
+                  <c:v>54.17777777777773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.7444444444444</c:v>
+                  <c:v>61.67777777777773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.2444444444444</c:v>
+                  <c:v>69.17777777777773</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.7444444444444</c:v>
+                  <c:v>76.67777777777772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.2444444444444</c:v>
+                  <c:v>84.17777777777772</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.7444444444444</c:v>
+                  <c:v>91.67777777777772</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101.1888888888886</c:v>
+                  <c:v>99.17777777777756</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>108.4555555555551</c:v>
+                  <c:v>106.6777777777773</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>115.5666666666661</c:v>
+                  <c:v>114.0666666666663</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>122.4333333333327</c:v>
+                  <c:v>121.4888888888885</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>129.0222222222218</c:v>
+                  <c:v>128.6666666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>135.7111111111106</c:v>
+                  <c:v>135.7333333333328</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>142.244444444444</c:v>
+                  <c:v>142.644444444444</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>148.9888888888883</c:v>
+                  <c:v>149.2666666666662</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>155.344444444444</c:v>
+                  <c:v>155.8555555555551</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>161.944444444444</c:v>
+                  <c:v>162.0777777777774</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>168.2999999999996</c:v>
+                  <c:v>168.3555555555552</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>174.6222222222217</c:v>
+                  <c:v>174.7222222222218</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>180.7666666666661</c:v>
+                  <c:v>180.9111111111106</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>187.0111111111106</c:v>
+                  <c:v>187.3333333333329</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>193.544444444444</c:v>
+                  <c:v>193.5777777777774</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>199.7777777777775</c:v>
+                  <c:v>199.7222222222219</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>205.8555555555551</c:v>
+                  <c:v>206.0777777777774</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>211.5666666666663</c:v>
+                  <c:v>211.8111111111107</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>217.3555555555553</c:v>
+                  <c:v>217.5777777777775</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>223.3555555555551</c:v>
+                  <c:v>223.4777777777774</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>229.2777777777773</c:v>
+                  <c:v>229.2888888888884</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>233.9555555555551</c:v>
+                  <c:v>234.4333333333328</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>239.2444444444439</c:v>
+                  <c:v>240.3111111111106</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>244.644444444444</c:v>
+                  <c:v>245.4666666666663</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>248.9888888888884</c:v>
+                  <c:v>250.2666666666663</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>253.7222222222218</c:v>
+                  <c:v>255.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>258.3999999999995</c:v>
+                  <c:v>259.2222222222218</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>262.1111111111107</c:v>
+                  <c:v>263.0999999999995</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>266.3888888888885</c:v>
+                  <c:v>266.6888888888885</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>269.366666666666</c:v>
+                  <c:v>269.1111111111106</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>271.1888888888885</c:v>
+                  <c:v>271.9888888888886</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>273.4666666666663</c:v>
+                  <c:v>273.5999999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>274.322222222222</c:v>
+                  <c:v>274.4333333333329</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>274.6333333333329</c:v>
+                  <c:v>274.2666666666663</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>274.4111111111108</c:v>
+                  <c:v>274.1111111111109</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>272.9999999999998</c:v>
+                  <c:v>273.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>271.4333333333331</c:v>
+                  <c:v>271.3222222222221</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>269.4444444444444</c:v>
+                  <c:v>269.2888888888888</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>267.2111111111111</c:v>
+                  <c:v>267.1444444444444</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>264.8</c:v>
@@ -3382,19 +3382,19 @@
                   <c:v>262.3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>259.8</c:v>
+                  <c:v>259.9111111111111</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>257.3</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>254.8</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>252.3</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>249.8555555555555</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>247.5</c:v>
@@ -3471,11 +3471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2105582440"/>
-        <c:axId val="-2105576824"/>
+        <c:axId val="2134254968"/>
+        <c:axId val="2134263448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2105582440"/>
+        <c:axId val="2134254968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3503,7 +3503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105576824"/>
+        <c:crossAx val="2134263448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3511,7 +3511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105576824"/>
+        <c:axId val="2134263448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,7 +3546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105582440"/>
+        <c:crossAx val="2134254968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3957,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O3" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3989,10 +3989,10 @@
         <v>7</v>
       </c>
       <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
         <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="3:19">
@@ -4015,10 +4015,10 @@
         <v>1.3777777777777775</v>
       </c>
       <c r="N2">
-        <v>2.3866666666666627</v>
+        <v>2.2533333333333299</v>
       </c>
       <c r="O2">
-        <v>2.6066666666666629</v>
+        <v>2.579999999999997</v>
       </c>
       <c r="R2">
         <v>2.4428571428571391</v>
@@ -4047,16 +4047,16 @@
         <v>1.0888888888888828</v>
       </c>
       <c r="N3">
-        <v>7.4533333333333305</v>
+        <v>5.8266666666666636</v>
       </c>
       <c r="O3">
-        <v>7.7533333333333303</v>
+        <v>6.2799999999999949</v>
       </c>
       <c r="R3">
-        <v>8.1904761904761862</v>
+        <v>6.3142857142857096</v>
       </c>
       <c r="S3">
-        <v>6.7666666666666631</v>
+        <v>5.2666666666666613</v>
       </c>
     </row>
     <row r="4" spans="3:19">
@@ -4079,16 +4079,16 @@
         <v>-0.38888888888889472</v>
       </c>
       <c r="N4">
-        <v>14.17999999999997</v>
+        <v>11.886666666666631</v>
       </c>
       <c r="O4">
-        <v>14.539999999999969</v>
+        <v>12.573333333333299</v>
       </c>
       <c r="R4">
-        <v>15.466666666666637</v>
+        <v>13.076190476190419</v>
       </c>
       <c r="S4">
-        <v>12.666666666666623</v>
+        <v>10.077777777777753</v>
       </c>
     </row>
     <row r="5" spans="3:19">
@@ -4111,16 +4111,16 @@
         <v>-1.3444444444444428</v>
       </c>
       <c r="N5">
-        <v>21.373333333333299</v>
+        <v>19.1533333333333</v>
       </c>
       <c r="O5">
-        <v>21.846666666666621</v>
+        <v>19.886666666666638</v>
       </c>
       <c r="R5">
-        <v>22.914285714285679</v>
+        <v>20.533333333333278</v>
       </c>
       <c r="S5">
-        <v>19.533333333333292</v>
+        <v>16.766666666666623</v>
       </c>
     </row>
     <row r="6" spans="3:19">
@@ -4143,16 +4143,16 @@
         <v>-1.6555555555555366</v>
       </c>
       <c r="N6">
-        <v>28.753333333333295</v>
+        <v>26.579999999999977</v>
       </c>
       <c r="O6">
-        <v>29.246666666666631</v>
+        <v>27.326666666666643</v>
       </c>
       <c r="R6">
-        <v>30.414285714285683</v>
+        <v>28.028571428571365</v>
       </c>
       <c r="S6">
-        <v>26.788888888888856</v>
+        <v>24.177777777777731</v>
       </c>
     </row>
     <row r="7" spans="3:19">
@@ -4175,16 +4175,16 @@
         <v>-0.38888888888887624</v>
       </c>
       <c r="N7">
-        <v>36.173333333333289</v>
+        <v>34.053333333333313</v>
       </c>
       <c r="O7">
-        <v>36.746666666666627</v>
+        <v>34.82666666666664</v>
       </c>
       <c r="R7">
-        <v>37.909523809523783</v>
+        <v>35.528571428571368</v>
       </c>
       <c r="S7">
-        <v>34.144444444444389</v>
+        <v>31.677777777777731</v>
       </c>
     </row>
     <row r="8" spans="3:19">
@@ -4207,16 +4207,16 @@
         <v>1.4666666666666623</v>
       </c>
       <c r="N8">
-        <v>43.653333333333293</v>
+        <v>41.553333333333313</v>
       </c>
       <c r="O8">
-        <v>44.179999999999964</v>
+        <v>42.32666666666664</v>
       </c>
       <c r="R8">
-        <v>45.409523809523783</v>
+        <v>43.028571428571375</v>
       </c>
       <c r="S8">
-        <v>41.433333333333294</v>
+        <v>39.177777777777735</v>
       </c>
     </row>
     <row r="9" spans="3:19">
@@ -4239,16 +4239,16 @@
         <v>1.7222222222222112</v>
       </c>
       <c r="N9">
-        <v>51.153333333333293</v>
+        <v>49.053333333333313</v>
       </c>
       <c r="O9">
-        <v>51.679999999999971</v>
+        <v>49.82666666666664</v>
       </c>
       <c r="R9">
-        <v>52.909523809523783</v>
+        <v>50.528571428571375</v>
       </c>
       <c r="S9">
-        <v>48.777777777777729</v>
+        <v>46.677777777777735</v>
       </c>
     </row>
     <row r="10" spans="3:19">
@@ -4271,16 +4271,16 @@
         <v>2.9333333333333194</v>
       </c>
       <c r="N10">
-        <v>58.653333333333293</v>
+        <v>56.553333333333306</v>
       </c>
       <c r="O10">
-        <v>59.179999999999971</v>
+        <v>57.32666666666664</v>
       </c>
       <c r="R10">
-        <v>60.409523809523783</v>
+        <v>58.028571428571375</v>
       </c>
       <c r="S10">
-        <v>56.244444444444397</v>
+        <v>54.177777777777735</v>
       </c>
     </row>
     <row r="11" spans="3:19">
@@ -4303,16 +4303,16 @@
         <v>5.3888888888888697</v>
       </c>
       <c r="N11">
-        <v>66.153333333333293</v>
+        <v>64.053333333333313</v>
       </c>
       <c r="O11">
-        <v>66.679999999999978</v>
+        <v>64.82666666666664</v>
       </c>
       <c r="R11">
-        <v>67.90952380952379</v>
+        <v>65.528571428571382</v>
       </c>
       <c r="S11">
-        <v>63.744444444444397</v>
+        <v>61.677777777777735</v>
       </c>
     </row>
     <row r="12" spans="3:19">
@@ -4335,16 +4335,16 @@
         <v>6.9666666666666446</v>
       </c>
       <c r="N12">
-        <v>73.653333333333293</v>
+        <v>71.553333333333313</v>
       </c>
       <c r="O12">
-        <v>74.179999999999978</v>
+        <v>72.32666666666664</v>
       </c>
       <c r="R12">
-        <v>75.409523809523776</v>
+        <v>73.028571428571382</v>
       </c>
       <c r="S12">
-        <v>71.244444444444397</v>
+        <v>69.177777777777735</v>
       </c>
     </row>
     <row r="13" spans="3:19">
@@ -4367,16 +4367,16 @@
         <v>8.2999999999999652</v>
       </c>
       <c r="N13">
-        <v>81.153333333333293</v>
+        <v>79.053333333333313</v>
       </c>
       <c r="O13">
-        <v>81.679999999999978</v>
+        <v>79.82666666666664</v>
       </c>
       <c r="R13">
-        <v>82.909523809523776</v>
+        <v>80.528571428571382</v>
       </c>
       <c r="S13">
-        <v>78.744444444444397</v>
+        <v>76.67777777777772</v>
       </c>
     </row>
     <row r="14" spans="3:19">
@@ -4399,16 +4399,16 @@
         <v>8.3666666666666458</v>
       </c>
       <c r="N14">
-        <v>88.653333333333293</v>
+        <v>86.553333333333313</v>
       </c>
       <c r="O14">
-        <v>89.179999999999978</v>
+        <v>87.32666666666664</v>
       </c>
       <c r="R14">
-        <v>90.40952380952379</v>
+        <v>88.028571428571382</v>
       </c>
       <c r="S14">
-        <v>86.244444444444412</v>
+        <v>84.17777777777772</v>
       </c>
     </row>
     <row r="15" spans="3:19">
@@ -4431,16 +4431,16 @@
         <v>9.9222222222222136</v>
       </c>
       <c r="N15">
-        <v>96.153333333333293</v>
+        <v>94.053333333333313</v>
       </c>
       <c r="O15">
-        <v>96.679999999999978</v>
+        <v>94.82666666666664</v>
       </c>
       <c r="R15">
-        <v>97.90952380952379</v>
+        <v>95.528571428571382</v>
       </c>
       <c r="S15">
-        <v>93.744444444444412</v>
+        <v>91.67777777777772</v>
       </c>
     </row>
     <row r="16" spans="3:19">
@@ -4463,16 +4463,16 @@
         <v>12.111111111111088</v>
       </c>
       <c r="N16">
-        <v>103.65333333333292</v>
+        <v>101.55333333333309</v>
       </c>
       <c r="O16">
-        <v>104.17999999999972</v>
+        <v>102.3266666666664</v>
       </c>
       <c r="R16">
-        <v>105.40952380952331</v>
+        <v>103.02857142857079</v>
       </c>
       <c r="S16">
-        <v>101.1888888888886</v>
+        <v>99.177777777777564</v>
       </c>
     </row>
     <row r="17" spans="3:19">
@@ -4495,16 +4495,16 @@
         <v>11.622222222222199</v>
       </c>
       <c r="N17">
-        <v>111.15333333333292</v>
+        <v>109.0533333333331</v>
       </c>
       <c r="O17">
-        <v>111.67999999999972</v>
+        <v>109.8266666666664</v>
       </c>
       <c r="R17">
-        <v>112.90952380952331</v>
+        <v>110.52857142857079</v>
       </c>
       <c r="S17">
-        <v>108.45555555555509</v>
+        <v>106.67777777777731</v>
       </c>
     </row>
     <row r="18" spans="3:19">
@@ -4527,16 +4527,16 @@
         <v>11.766666666666643</v>
       </c>
       <c r="N18">
-        <v>118.64666666666631</v>
+        <v>116.5533333333331</v>
       </c>
       <c r="O18">
-        <v>119.17999999999972</v>
+        <v>117.3266666666664</v>
       </c>
       <c r="R18">
-        <v>120.40952380952331</v>
+        <v>118.02857142857079</v>
       </c>
       <c r="S18">
-        <v>115.56666666666608</v>
+        <v>114.06666666666629</v>
       </c>
     </row>
     <row r="19" spans="3:19">
@@ -4559,16 +4559,16 @@
         <v>15.455555555555502</v>
       </c>
       <c r="N19">
-        <v>126.08666666666632</v>
+        <v>124.0533333333331</v>
       </c>
       <c r="O19">
-        <v>126.65999999999971</v>
+        <v>124.8266666666664</v>
       </c>
       <c r="R19">
-        <v>127.90952380952331</v>
+        <v>125.52857142857079</v>
       </c>
       <c r="S19">
-        <v>122.43333333333271</v>
+        <v>121.48888888888851</v>
       </c>
     </row>
     <row r="20" spans="3:19">
@@ -4591,16 +4591,16 @@
         <v>17.077777777777733</v>
       </c>
       <c r="N20">
-        <v>133.42666666666634</v>
+        <v>131.55333333333311</v>
       </c>
       <c r="O20">
-        <v>134.05333333333311</v>
+        <v>132.30666666666639</v>
       </c>
       <c r="R20">
-        <v>135.40952380952334</v>
+        <v>133.02857142857079</v>
       </c>
       <c r="S20">
-        <v>129.02222222222181</v>
+        <v>128.66666666666629</v>
       </c>
     </row>
     <row r="21" spans="3:19">
@@ -4623,16 +4623,16 @@
         <v>18.311111111111053</v>
       </c>
       <c r="N21">
-        <v>140.67333333333312</v>
+        <v>139.0199999999997</v>
       </c>
       <c r="O21">
-        <v>141.34666666666641</v>
+        <v>139.70666666666639</v>
       </c>
       <c r="R21">
-        <v>142.89523809523763</v>
+        <v>140.52857142857079</v>
       </c>
       <c r="S21">
-        <v>135.7111111111106</v>
+        <v>135.73333333333281</v>
       </c>
     </row>
     <row r="22" spans="3:19">
@@ -4655,16 +4655,16 @@
         <v>21.255555555555496</v>
       </c>
       <c r="N22">
-        <v>147.82666666666628</v>
+        <v>146.45999999999972</v>
       </c>
       <c r="O22">
-        <v>148.45333333333303</v>
+        <v>147.1599999999998</v>
       </c>
       <c r="R22">
-        <v>150.27619047618992</v>
+        <v>148.02857142857079</v>
       </c>
       <c r="S22">
-        <v>142.24444444444401</v>
+        <v>142.64444444444399</v>
       </c>
     </row>
     <row r="23" spans="3:19">
@@ -4687,16 +4687,16 @@
         <v>22.25555555555551</v>
       </c>
       <c r="N23">
-        <v>154.84666666666629</v>
+        <v>153.83999999999969</v>
       </c>
       <c r="O23">
-        <v>155.29999999999959</v>
+        <v>154.37333333333282</v>
       </c>
       <c r="R23">
-        <v>157.62857142857081</v>
+        <v>155.52857142857079</v>
       </c>
       <c r="S23">
-        <v>148.98888888888831</v>
+        <v>149.2666666666662</v>
       </c>
     </row>
     <row r="24" spans="3:19">
@@ -4719,16 +4719,16 @@
         <v>22.666666666666611</v>
       </c>
       <c r="N24">
-        <v>161.62666666666627</v>
+        <v>161.05333333333311</v>
       </c>
       <c r="O24">
-        <v>162.12666666666638</v>
+        <v>161.46666666666641</v>
       </c>
       <c r="R24">
-        <v>164.91904761904709</v>
+        <v>162.99047619047559</v>
       </c>
       <c r="S24">
-        <v>155.34444444444404</v>
+        <v>155.8555555555551</v>
       </c>
     </row>
     <row r="25" spans="3:19">
@@ -4751,16 +4751,16 @@
         <v>25.288888888888845</v>
       </c>
       <c r="N25">
-        <v>168.38666666666629</v>
+        <v>168.113333333333</v>
       </c>
       <c r="O25">
-        <v>168.89333333333298</v>
+        <v>168.37333333333314</v>
       </c>
       <c r="R25">
-        <v>172.00476190476147</v>
+        <v>170.4047619047613</v>
       </c>
       <c r="S25">
-        <v>161.94444444444403</v>
+        <v>162.07777777777738</v>
       </c>
     </row>
     <row r="26" spans="3:19">
@@ -4783,16 +4783,16 @@
         <v>26.666666666666622</v>
       </c>
       <c r="N26">
-        <v>175.23333333333289</v>
+        <v>175.03999999999962</v>
       </c>
       <c r="O26">
-        <v>175.73999999999972</v>
+        <v>175.15333333333291</v>
       </c>
       <c r="R26">
-        <v>178.89999999999969</v>
+        <v>177.84761904761848</v>
       </c>
       <c r="S26">
-        <v>168.29999999999956</v>
+        <v>168.35555555555518</v>
       </c>
     </row>
     <row r="27" spans="3:19">
@@ -4815,16 +4815,16 @@
         <v>28.755555555555521</v>
       </c>
       <c r="N27">
-        <v>181.84666666666641</v>
+        <v>181.87333333333288</v>
       </c>
       <c r="O27">
-        <v>182.65999999999968</v>
+        <v>181.77333333333303</v>
       </c>
       <c r="R27">
-        <v>185.79047619047569</v>
+        <v>184.77619047619004</v>
       </c>
       <c r="S27">
-        <v>174.62222222222172</v>
+        <v>174.72222222222177</v>
       </c>
     </row>
     <row r="28" spans="3:19">
@@ -4847,16 +4847,16 @@
         <v>30.855555555555508</v>
       </c>
       <c r="N28">
-        <v>188.54666666666628</v>
+        <v>188.45333333333298</v>
       </c>
       <c r="O28">
-        <v>189.62666666666632</v>
+        <v>188.59999999999971</v>
       </c>
       <c r="R28">
-        <v>192.723809523809</v>
+        <v>191.85238095238037</v>
       </c>
       <c r="S28">
-        <v>180.76666666666611</v>
+        <v>180.91111111111061</v>
       </c>
     </row>
     <row r="29" spans="3:19">
@@ -4879,16 +4879,16 @@
         <v>33.144444444444396</v>
       </c>
       <c r="N29">
-        <v>195.333333333333</v>
+        <v>195.09999999999971</v>
       </c>
       <c r="O29">
-        <v>196.23999999999972</v>
+        <v>195.34666666666629</v>
       </c>
       <c r="R29">
-        <v>199.46666666666621</v>
+        <v>198.89047619047571</v>
       </c>
       <c r="S29">
-        <v>187.01111111111061</v>
+        <v>187.33333333333289</v>
       </c>
     </row>
     <row r="30" spans="3:19">
@@ -4911,16 +4911,16 @@
         <v>34.288888888888849</v>
       </c>
       <c r="N30">
-        <v>202.053333333333</v>
+        <v>201.67333333333309</v>
       </c>
       <c r="O30">
-        <v>202.68666666666627</v>
+        <v>202.11999999999961</v>
       </c>
       <c r="R30">
-        <v>206.0809523809518</v>
+        <v>205.77619047618992</v>
       </c>
       <c r="S30">
-        <v>193.54444444444397</v>
+        <v>193.57777777777738</v>
       </c>
     </row>
     <row r="31" spans="3:19">
@@ -4943,16 +4943,16 @@
         <v>35.333333333333272</v>
       </c>
       <c r="N31">
-        <v>208.58666666666642</v>
+        <v>208.31333333333299</v>
       </c>
       <c r="O31">
-        <v>209.42666666666628</v>
+        <v>208.56666666666652</v>
       </c>
       <c r="R31">
-        <v>212.80952380952363</v>
+        <v>212.57619047619011</v>
       </c>
       <c r="S31">
-        <v>199.77777777777752</v>
+        <v>199.72222222222189</v>
       </c>
     </row>
     <row r="32" spans="3:19">
@@ -4975,16 +4975,16 @@
         <v>36.533333333333282</v>
       </c>
       <c r="N32">
-        <v>215.20666666666639</v>
+        <v>214.71999999999966</v>
       </c>
       <c r="O32">
-        <v>215.79333333333301</v>
+        <v>214.76666666666628</v>
       </c>
       <c r="R32">
-        <v>219.63809523809468</v>
+        <v>219.2904761904756</v>
       </c>
       <c r="S32">
-        <v>205.8555555555551</v>
+        <v>206.07777777777741</v>
       </c>
     </row>
     <row r="33" spans="3:19">
@@ -5007,16 +5007,16 @@
         <v>39.122222222222206</v>
       </c>
       <c r="N33">
-        <v>221.3599999999995</v>
+        <v>220.75999999999971</v>
       </c>
       <c r="O33">
-        <v>221.99999999999949</v>
+        <v>221.14666666666625</v>
       </c>
       <c r="R33">
-        <v>226.10952380952321</v>
+        <v>225.93333333333266</v>
       </c>
       <c r="S33">
-        <v>211.56666666666629</v>
+        <v>211.81111111111073</v>
       </c>
     </row>
     <row r="34" spans="3:19">
@@ -5039,16 +5039,16 @@
         <v>41.133333333333283</v>
       </c>
       <c r="N34">
-        <v>227.82666666666643</v>
+        <v>227.23333333333289</v>
       </c>
       <c r="O34">
-        <v>228.53333333333302</v>
+        <v>227.4999999999996</v>
       </c>
       <c r="R34">
-        <v>232.5428571428566</v>
+        <v>232.36190476190441</v>
       </c>
       <c r="S34">
-        <v>217.3555555555553</v>
+        <v>217.5777777777775</v>
       </c>
     </row>
     <row r="35" spans="3:19">
@@ -5071,16 +5071,16 @@
         <v>42.799999999999969</v>
       </c>
       <c r="N35">
-        <v>234.30666666666633</v>
+        <v>233.44666666666632</v>
       </c>
       <c r="O35">
-        <v>234.89999999999981</v>
+        <v>233.62666666666632</v>
       </c>
       <c r="R35">
-        <v>239.09523809523756</v>
+        <v>238.93809523809469</v>
       </c>
       <c r="S35">
-        <v>223.3555555555551</v>
+        <v>223.47777777777742</v>
       </c>
     </row>
     <row r="36" spans="3:19">
@@ -5103,16 +5103,16 @@
         <v>45.044444444444402</v>
       </c>
       <c r="N36">
-        <v>240.30666666666639</v>
+        <v>239.63333333333307</v>
       </c>
       <c r="O36">
-        <v>240.66666666666637</v>
+        <v>239.80666666666622</v>
       </c>
       <c r="R36">
-        <v>245.46190476190424</v>
+        <v>245.06666666666629</v>
       </c>
       <c r="S36">
-        <v>229.27777777777732</v>
+        <v>229.28888888888838</v>
       </c>
     </row>
     <row r="37" spans="3:19">
@@ -5135,16 +5135,16 @@
         <v>47.555555555555515</v>
       </c>
       <c r="N37">
-        <v>246.25999999999948</v>
+        <v>245.90666666666621</v>
       </c>
       <c r="O37">
-        <v>246.71999999999971</v>
+        <v>245.57999999999964</v>
       </c>
       <c r="R37">
-        <v>251.59523809523753</v>
+        <v>251.2999999999995</v>
       </c>
       <c r="S37">
-        <v>233.95555555555507</v>
+        <v>234.4333333333328</v>
       </c>
     </row>
     <row r="38" spans="3:19">
@@ -5167,16 +5167,16 @@
         <v>50.111111111111065</v>
       </c>
       <c r="N38">
-        <v>251.77999999999975</v>
+        <v>251.933333333333</v>
       </c>
       <c r="O38">
-        <v>252.43999999999951</v>
+        <v>251.39999999999958</v>
       </c>
       <c r="R38">
-        <v>257.69047619047569</v>
+        <v>256.9952380952376</v>
       </c>
       <c r="S38">
-        <v>239.2444444444439</v>
+        <v>240.31111111111059</v>
       </c>
     </row>
     <row r="39" spans="3:19">
@@ -5199,16 +5199,16 @@
         <v>52.422222222222182</v>
       </c>
       <c r="N39">
-        <v>256.86666666666622</v>
+        <v>257.55333333333311</v>
       </c>
       <c r="O39">
-        <v>258.19333333333327</v>
+        <v>257.12666666666638</v>
       </c>
       <c r="R39">
-        <v>263.28571428571365</v>
+        <v>262.90952380952319</v>
       </c>
       <c r="S39">
-        <v>244.64444444444402</v>
+        <v>245.46666666666633</v>
       </c>
     </row>
     <row r="40" spans="3:19">
@@ -5231,16 +5231,16 @@
         <v>54.633333333333283</v>
       </c>
       <c r="N40">
-        <v>262.39999999999969</v>
+        <v>263.05333333333294</v>
       </c>
       <c r="O40">
-        <v>263.75333333333299</v>
+        <v>262.61999999999961</v>
       </c>
       <c r="R40">
-        <v>268.2047619047616</v>
+        <v>268.46190476190429</v>
       </c>
       <c r="S40">
-        <v>248.98888888888843</v>
+        <v>250.26666666666628</v>
       </c>
     </row>
     <row r="41" spans="3:19">
@@ -5263,16 +5263,16 @@
         <v>56.099999999999945</v>
       </c>
       <c r="N41">
-        <v>267.35999999999984</v>
+        <v>267.35333333333301</v>
       </c>
       <c r="O41">
-        <v>268.70666666666631</v>
+        <v>267.69333333333304</v>
       </c>
       <c r="R41">
-        <v>273.42380952380915</v>
+        <v>273.51904761904706</v>
       </c>
       <c r="S41">
-        <v>253.7222222222218</v>
+        <v>255.03333333333302</v>
       </c>
     </row>
     <row r="42" spans="3:19">
@@ -5295,16 +5295,16 @@
         <v>59.211111111111066</v>
       </c>
       <c r="N42">
-        <v>271.15999999999951</v>
+        <v>271.87333333333299</v>
       </c>
       <c r="O42">
-        <v>272.58666666666619</v>
+        <v>271.6399999999997</v>
       </c>
       <c r="R42">
-        <v>278.49047619047559</v>
+        <v>278.10952380952324</v>
       </c>
       <c r="S42">
-        <v>258.39999999999952</v>
+        <v>259.22222222222183</v>
       </c>
     </row>
     <row r="43" spans="3:19">
@@ -5327,16 +5327,16 @@
         <v>61.13333333333329</v>
       </c>
       <c r="N43">
-        <v>274.31333333333305</v>
+        <v>275.80666666666639</v>
       </c>
       <c r="O43">
-        <v>276.44666666666626</v>
+        <v>275.93333333333328</v>
       </c>
       <c r="R43">
-        <v>282.30952380952345</v>
+        <v>281.01904761904706</v>
       </c>
       <c r="S43">
-        <v>262.11111111111069</v>
+        <v>263.09999999999951</v>
       </c>
     </row>
     <row r="44" spans="3:19">
@@ -5359,16 +5359,16 @@
         <v>62.97777777777776</v>
       </c>
       <c r="N44">
-        <v>277.59333333333302</v>
+        <v>278.81333333333299</v>
       </c>
       <c r="O44">
-        <v>279.53333333333308</v>
+        <v>279.27333333333291</v>
       </c>
       <c r="R44">
-        <v>285.67619047619007</v>
+        <v>284.22857142857089</v>
       </c>
       <c r="S44">
-        <v>266.38888888888852</v>
+        <v>266.68888888888853</v>
       </c>
     </row>
     <row r="45" spans="3:19">
@@ -5391,16 +5391,16 @@
         <v>64.499999999999957</v>
       </c>
       <c r="N45">
-        <v>280.15999999999968</v>
+        <v>281.25999999999971</v>
       </c>
       <c r="O45">
-        <v>281.42666666666634</v>
+        <v>281.11999999999978</v>
       </c>
       <c r="R45">
-        <v>286.39523809523769</v>
+        <v>285.25714285714247</v>
       </c>
       <c r="S45">
-        <v>269.36666666666605</v>
+        <v>269.11111111111057</v>
       </c>
     </row>
     <row r="46" spans="3:19">
@@ -5423,16 +5423,16 @@
         <v>67.922222222222189</v>
       </c>
       <c r="N46">
-        <v>280.55999999999966</v>
+        <v>282.79333333333312</v>
       </c>
       <c r="O46">
-        <v>282.03333333333319</v>
+        <v>282.71333333333331</v>
       </c>
       <c r="R46">
-        <v>285.5999999999998</v>
+        <v>285.12857142857092</v>
       </c>
       <c r="S46">
-        <v>271.18888888888847</v>
+        <v>271.9888888888886</v>
       </c>
     </row>
     <row r="47" spans="3:19">
@@ -5455,16 +5455,16 @@
         <v>69.966666666666626</v>
       </c>
       <c r="N47">
-        <v>280.65999999999957</v>
+        <v>282.69999999999982</v>
       </c>
       <c r="O47">
-        <v>281.97999999999979</v>
+        <v>282.7266666666664</v>
       </c>
       <c r="R47">
-        <v>283.92857142857122</v>
+        <v>284.06666666666649</v>
       </c>
       <c r="S47">
-        <v>273.4666666666663</v>
+        <v>273.59999999999957</v>
       </c>
     </row>
     <row r="48" spans="3:19">
@@ -5487,16 +5487,16 @@
         <v>70.988888888888852</v>
       </c>
       <c r="N48">
-        <v>280.2133333333332</v>
+        <v>281.49999999999989</v>
       </c>
       <c r="O48">
-        <v>281.11333333333323</v>
+        <v>281.49999999999989</v>
       </c>
       <c r="R48">
-        <v>281.79523809523801</v>
+        <v>282.29523809523789</v>
       </c>
       <c r="S48">
-        <v>274.32222222222191</v>
+        <v>274.43333333333288</v>
       </c>
     </row>
     <row r="49" spans="3:19">
@@ -5519,16 +5519,16 @@
         <v>74.399999999999963</v>
       </c>
       <c r="N49">
-        <v>278.64666666666648</v>
+        <v>279.72666666666657</v>
       </c>
       <c r="O49">
-        <v>279.19999999999993</v>
+        <v>279.65999999999991</v>
       </c>
       <c r="R49">
-        <v>279.9571428571428</v>
+        <v>280</v>
       </c>
       <c r="S49">
-        <v>274.63333333333287</v>
+        <v>274.26666666666631</v>
       </c>
     </row>
     <row r="50" spans="3:19">
@@ -5551,16 +5551,16 @@
         <v>77.233333333333277</v>
       </c>
       <c r="N50">
-        <v>277.04666666666662</v>
+        <v>277.5</v>
       </c>
       <c r="O50">
-        <v>277.15333333333331</v>
+        <v>277.3</v>
       </c>
       <c r="R50">
         <v>277.5</v>
       </c>
       <c r="S50">
-        <v>274.41111111111076</v>
+        <v>274.11111111111092</v>
       </c>
     </row>
     <row r="51" spans="3:19">
@@ -5583,16 +5583,16 @@
         <v>81.1666666666666</v>
       </c>
       <c r="N51">
-        <v>274.92666666666662</v>
+        <v>275</v>
       </c>
       <c r="O51">
-        <v>274.90666666666658</v>
+        <v>274.81333333333333</v>
       </c>
       <c r="R51">
         <v>275</v>
       </c>
       <c r="S51">
-        <v>272.99999999999977</v>
+        <v>273.29999999999967</v>
       </c>
     </row>
     <row r="52" spans="3:19">
@@ -5624,7 +5624,7 @@
         <v>272.5</v>
       </c>
       <c r="S52">
-        <v>271.43333333333305</v>
+        <v>271.32222222222208</v>
       </c>
     </row>
     <row r="53" spans="3:19">
@@ -5656,7 +5656,7 @@
         <v>270</v>
       </c>
       <c r="S53">
-        <v>269.4444444444444</v>
+        <v>269.28888888888878</v>
       </c>
     </row>
     <row r="54" spans="3:19">
@@ -5688,7 +5688,7 @@
         <v>267.5</v>
       </c>
       <c r="S54">
-        <v>267.21111111111111</v>
+        <v>267.14444444444439</v>
       </c>
     </row>
     <row r="55" spans="3:19">
@@ -5784,7 +5784,7 @@
         <v>260</v>
       </c>
       <c r="S57">
-        <v>259.8</v>
+        <v>259.9111111111111</v>
       </c>
     </row>
     <row r="58" spans="3:19">
@@ -5816,7 +5816,7 @@
         <v>257.5</v>
       </c>
       <c r="S58">
-        <v>257.3</v>
+        <v>257.5</v>
       </c>
     </row>
     <row r="59" spans="3:19">
@@ -5848,7 +5848,7 @@
         <v>255</v>
       </c>
       <c r="S59">
-        <v>254.8</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="3:19">
@@ -5880,7 +5880,7 @@
         <v>252.5</v>
       </c>
       <c r="S60">
-        <v>252.3</v>
+        <v>252.5</v>
       </c>
     </row>
     <row r="61" spans="3:19">
@@ -5912,7 +5912,7 @@
         <v>250</v>
       </c>
       <c r="S61">
-        <v>249.85555555555547</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="3:19">
